--- a/MODS-DC-Generators/00 Illustrative-MODS-Generator-NEW/Illustrative_Images_DC14.xlsx
+++ b/MODS-DC-Generators/00 Illustrative-MODS-Generator-NEW/Illustrative_Images_DC14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5406,12 +5406,6 @@
     <t>The National Library of Scotland, Edinburgh, 2010</t>
   </si>
   <si>
-    <t>David Livingstone Centre card index entry 297b (recto), 2010</t>
-  </si>
-  <si>
-    <t>David Livingstone Centre card index entry 297b (verso), 2010</t>
-  </si>
-  <si>
     <t>An image of a page from David Livingstone's Unyanyembe Journal (1866-72:[728]), 2013</t>
   </si>
   <si>
@@ -5421,12 +5415,6 @@
     <t>A processed spectral image of a page of David Livingstone's 1871 Field Diary (CIX spectral_ratio), detail, 2010-2011</t>
   </si>
   <si>
-    <t>David Livingstone Centre card index entry 297b (recto), 2008</t>
-  </si>
-  <si>
-    <t>David Livingstone Centre card index entry 297b (verso), 2008</t>
-  </si>
-  <si>
     <t>Home page of the Archimedes Palimpsest Project, 2017</t>
   </si>
   <si>
@@ -6358,6 +6346,18 @@
   </si>
   <si>
     <t>liv_016169</t>
+  </si>
+  <si>
+    <t>David Livingstone Centre card index entry 297a and 297b (recto), 2008</t>
+  </si>
+  <si>
+    <t>David Livingstone Centre card index entry 297a and 297b (verso), 2008</t>
+  </si>
+  <si>
+    <t>David Livingstone Centre card index entry 297a and 297b (recto); updated to include 297c and 297d, 2010</t>
+  </si>
+  <si>
+    <t>David Livingstone Centre card index entry 297a and 297b (verso); updated to include 297c and 297d, 2010</t>
   </si>
 </sst>
 </file>
@@ -7655,8 +7655,8 @@
   <dimension ref="A1:I1107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A937" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A939" sqref="A939:A1107"/>
+      <pane ySplit="1" topLeftCell="A995" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B997" sqref="B997"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14445,7 +14445,7 @@
       </c>
       <c r="H256" s="9"/>
       <c r="I256" s="5" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="30">
@@ -14469,7 +14469,7 @@
       </c>
       <c r="H257" s="9"/>
       <c r="I257" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="30">
@@ -14493,7 +14493,7 @@
       </c>
       <c r="H258" s="9"/>
       <c r="I258" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="30">
@@ -14517,7 +14517,7 @@
       </c>
       <c r="H259" s="9"/>
       <c r="I259" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="30">
@@ -14541,7 +14541,7 @@
       </c>
       <c r="H260" s="9"/>
       <c r="I260" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="30">
@@ -14565,7 +14565,7 @@
       </c>
       <c r="H261" s="9"/>
       <c r="I261" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="30">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="H262" s="9"/>
       <c r="I262" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="30">
@@ -14613,7 +14613,7 @@
       </c>
       <c r="H263" s="9"/>
       <c r="I263" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="30">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="H264" s="9"/>
       <c r="I264" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="30">
@@ -14661,7 +14661,7 @@
       </c>
       <c r="H265" s="9"/>
       <c r="I265" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="30">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="H266" s="9"/>
       <c r="I266" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="30">
@@ -14709,7 +14709,7 @@
       </c>
       <c r="H267" s="9"/>
       <c r="I267" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="30">
@@ -14733,7 +14733,7 @@
       </c>
       <c r="H268" s="9"/>
       <c r="I268" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="30">
@@ -14757,7 +14757,7 @@
       </c>
       <c r="H269" s="9"/>
       <c r="I269" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="30">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="H270" s="9"/>
       <c r="I270" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="30">
@@ -14805,7 +14805,7 @@
       </c>
       <c r="H271" s="9"/>
       <c r="I271" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="30">
@@ -14829,7 +14829,7 @@
       </c>
       <c r="H272" s="9"/>
       <c r="I272" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="30">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="H273" s="9"/>
       <c r="I273" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="30">
@@ -14877,7 +14877,7 @@
       </c>
       <c r="H274" s="9"/>
       <c r="I274" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="30">
@@ -14901,7 +14901,7 @@
       </c>
       <c r="H275" s="9"/>
       <c r="I275" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="30">
@@ -14925,7 +14925,7 @@
       </c>
       <c r="H276" s="9"/>
       <c r="I276" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="30">
@@ -14949,7 +14949,7 @@
       </c>
       <c r="H277" s="9"/>
       <c r="I277" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="30">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="H278" s="9"/>
       <c r="I278" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="30">
@@ -14997,7 +14997,7 @@
       </c>
       <c r="H279" s="9"/>
       <c r="I279" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="30">
@@ -15021,7 +15021,7 @@
       </c>
       <c r="H280" s="9"/>
       <c r="I280" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="30">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="H281" s="9"/>
       <c r="I281" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="30">
@@ -15069,7 +15069,7 @@
       </c>
       <c r="H282" s="9"/>
       <c r="I282" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="30">
@@ -15093,7 +15093,7 @@
       </c>
       <c r="H283" s="9"/>
       <c r="I283" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="30">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="H284" s="9"/>
       <c r="I284" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="30">
@@ -15141,7 +15141,7 @@
       </c>
       <c r="H285" s="9"/>
       <c r="I285" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="30">
@@ -15165,7 +15165,7 @@
       </c>
       <c r="H286" s="9"/>
       <c r="I286" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="30">
@@ -15189,7 +15189,7 @@
       </c>
       <c r="H287" s="9"/>
       <c r="I287" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="30">
@@ -15213,7 +15213,7 @@
       </c>
       <c r="H288" s="9"/>
       <c r="I288" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="30">
@@ -15237,7 +15237,7 @@
       </c>
       <c r="H289" s="9"/>
       <c r="I289" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="30">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="H290" s="9"/>
       <c r="I290" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="30">
@@ -15285,7 +15285,7 @@
       </c>
       <c r="H291" s="9"/>
       <c r="I291" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="30">
@@ -15309,7 +15309,7 @@
       </c>
       <c r="H292" s="9"/>
       <c r="I292" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="30">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="H293" s="9"/>
       <c r="I293" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="30">
@@ -15357,7 +15357,7 @@
       </c>
       <c r="H294" s="9"/>
       <c r="I294" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="30">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="H295" s="9"/>
       <c r="I295" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="30">
@@ -15405,7 +15405,7 @@
       </c>
       <c r="H296" s="9"/>
       <c r="I296" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="30">
@@ -15429,7 +15429,7 @@
       </c>
       <c r="H297" s="9"/>
       <c r="I297" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="30">
@@ -15453,7 +15453,7 @@
       </c>
       <c r="H298" s="9"/>
       <c r="I298" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="30">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="H299" s="9"/>
       <c r="I299" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="30">
@@ -15504,7 +15504,7 @@
       </c>
       <c r="H300" s="9"/>
       <c r="I300" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="30">
@@ -15528,7 +15528,7 @@
       </c>
       <c r="H301" s="9"/>
       <c r="I301" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="30">
@@ -15552,7 +15552,7 @@
       </c>
       <c r="H302" s="9"/>
       <c r="I302" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="30">
@@ -15576,7 +15576,7 @@
       </c>
       <c r="H303" s="9"/>
       <c r="I303" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="30">
@@ -15600,7 +15600,7 @@
       </c>
       <c r="H304" s="9"/>
       <c r="I304" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="30">
@@ -15624,7 +15624,7 @@
       </c>
       <c r="H305" s="9"/>
       <c r="I305" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="30">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="H306" s="9"/>
       <c r="I306" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="30">
@@ -15672,7 +15672,7 @@
       </c>
       <c r="H307" s="9"/>
       <c r="I307" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="30">
@@ -15696,7 +15696,7 @@
       </c>
       <c r="H308" s="9"/>
       <c r="I308" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="30">
@@ -15720,7 +15720,7 @@
       </c>
       <c r="H309" s="9"/>
       <c r="I309" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="30">
@@ -15744,7 +15744,7 @@
       </c>
       <c r="H310" s="9"/>
       <c r="I310" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="30">
@@ -15768,7 +15768,7 @@
       </c>
       <c r="H311" s="9"/>
       <c r="I311" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="30">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="H312" s="9"/>
       <c r="I312" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="30">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="H313" s="9"/>
       <c r="I313" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="30">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="H314" s="9"/>
       <c r="I314" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="30">
@@ -15867,7 +15867,7 @@
       </c>
       <c r="H315" s="9"/>
       <c r="I315" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="30">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="H316" s="9"/>
       <c r="I316" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="30">
@@ -15915,7 +15915,7 @@
       </c>
       <c r="H317" s="9"/>
       <c r="I317" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="30">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="H318" s="9"/>
       <c r="I318" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="30">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="H319" s="9"/>
       <c r="I319" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="30">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="H320" s="9"/>
       <c r="I320" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="30">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="H321" s="9"/>
       <c r="I321" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="30">
@@ -16035,7 +16035,7 @@
       </c>
       <c r="H322" s="9"/>
       <c r="I322" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="30">
@@ -16062,7 +16062,7 @@
       </c>
       <c r="H323" s="9"/>
       <c r="I323" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="30">
@@ -16086,7 +16086,7 @@
       </c>
       <c r="H324" s="9"/>
       <c r="I324" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="30">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="H325" s="9"/>
       <c r="I325" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="30">
@@ -16134,7 +16134,7 @@
       </c>
       <c r="H326" s="9"/>
       <c r="I326" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="30">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="H327" s="9"/>
       <c r="I327" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="30">
@@ -16185,7 +16185,7 @@
       </c>
       <c r="H328" s="9"/>
       <c r="I328" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="30">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="H329" s="9"/>
       <c r="I329" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="30">
@@ -16236,7 +16236,7 @@
       </c>
       <c r="H330" s="9"/>
       <c r="I330" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="30">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="H331" s="9"/>
       <c r="I331" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="30">
@@ -16284,7 +16284,7 @@
       </c>
       <c r="H332" s="9"/>
       <c r="I332" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="30">
@@ -16308,7 +16308,7 @@
       </c>
       <c r="H333" s="9"/>
       <c r="I333" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="30">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H334" s="9"/>
       <c r="I334" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="335" spans="1:9" ht="30">
@@ -16356,7 +16356,7 @@
       </c>
       <c r="H335" s="9"/>
       <c r="I335" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="30">
@@ -16383,7 +16383,7 @@
       </c>
       <c r="H336" s="9"/>
       <c r="I336" s="5" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="337" spans="1:9" ht="45">
@@ -16436,7 +16436,7 @@
         <v>703</v>
       </c>
       <c r="I338" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="30">
@@ -16462,7 +16462,7 @@
         <v>703</v>
       </c>
       <c r="I339" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="30">
@@ -16488,7 +16488,7 @@
         <v>703</v>
       </c>
       <c r="I340" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="30">
@@ -16514,7 +16514,7 @@
         <v>703</v>
       </c>
       <c r="I341" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="30">
@@ -16540,7 +16540,7 @@
         <v>703</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="30">
@@ -16566,7 +16566,7 @@
         <v>703</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="344" spans="1:9" ht="30">
@@ -16592,7 +16592,7 @@
         <v>703</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="345" spans="1:9" ht="30">
@@ -16618,7 +16618,7 @@
         <v>703</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="30">
@@ -16644,7 +16644,7 @@
         <v>703</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="347" spans="1:9" ht="30">
@@ -16670,7 +16670,7 @@
         <v>703</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="348" spans="1:9" ht="30">
@@ -16696,7 +16696,7 @@
         <v>703</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="30">
@@ -16722,7 +16722,7 @@
         <v>703</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="350" spans="1:9" ht="30">
@@ -16748,7 +16748,7 @@
         <v>703</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="30">
@@ -16774,7 +16774,7 @@
         <v>703</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="352" spans="1:9" ht="30">
@@ -16800,7 +16800,7 @@
         <v>703</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="30">
@@ -16826,7 +16826,7 @@
         <v>703</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="30">
@@ -16852,7 +16852,7 @@
         <v>703</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="30">
@@ -16878,7 +16878,7 @@
         <v>703</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="356" spans="1:9" ht="30">
@@ -16904,7 +16904,7 @@
         <v>703</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="357" spans="1:9" ht="30">
@@ -16930,7 +16930,7 @@
         <v>703</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="30">
@@ -16956,7 +16956,7 @@
         <v>703</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="45">
@@ -17297,7 +17297,7 @@
       </c>
       <c r="H370" s="9"/>
       <c r="I370" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="45">
@@ -17326,7 +17326,7 @@
         <v>702</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="45">
@@ -17355,7 +17355,7 @@
         <v>702</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="373" spans="1:9" ht="45">
@@ -17384,7 +17384,7 @@
         <v>702</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="45">
@@ -17413,7 +17413,7 @@
         <v>702</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="45">
@@ -17442,7 +17442,7 @@
         <v>702</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="45">
@@ -17471,7 +17471,7 @@
         <v>702</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="45">
@@ -17500,7 +17500,7 @@
         <v>702</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="378" spans="1:9" ht="45">
@@ -17526,7 +17526,7 @@
         <v>702</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="45">
@@ -17552,7 +17552,7 @@
         <v>702</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="45">
@@ -17578,7 +17578,7 @@
         <v>702</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="45">
@@ -17607,7 +17607,7 @@
         <v>702</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="382" spans="1:9" ht="45">
@@ -17636,7 +17636,7 @@
         <v>702</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="383" spans="1:9" ht="45">
@@ -17665,7 +17665,7 @@
         <v>702</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="30">
@@ -17694,7 +17694,7 @@
         <v>705</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="385" spans="1:9" ht="30">
@@ -17723,7 +17723,7 @@
         <v>705</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="386" spans="1:9" ht="30">
@@ -17752,7 +17752,7 @@
         <v>705</v>
       </c>
       <c r="I386" s="5" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="387" spans="1:9" ht="30">
@@ -17781,7 +17781,7 @@
         <v>705</v>
       </c>
       <c r="I387" s="5" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="388" spans="1:9" ht="30">
@@ -17810,7 +17810,7 @@
         <v>705</v>
       </c>
       <c r="I388" s="5" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="389" spans="1:9" ht="30">
@@ -17837,7 +17837,7 @@
         <v>706</v>
       </c>
       <c r="I389" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="390" spans="1:9" ht="30">
@@ -17864,7 +17864,7 @@
         <v>706</v>
       </c>
       <c r="I390" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="391" spans="1:9" ht="30">
@@ -17893,7 +17893,7 @@
         <v>706</v>
       </c>
       <c r="I391" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="392" spans="1:9" ht="30">
@@ -17922,7 +17922,7 @@
         <v>706</v>
       </c>
       <c r="I392" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="393" spans="1:9" ht="30">
@@ -17951,7 +17951,7 @@
         <v>706</v>
       </c>
       <c r="I393" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="394" spans="1:9" ht="30">
@@ -17980,7 +17980,7 @@
         <v>706</v>
       </c>
       <c r="I394" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="30">
@@ -18009,7 +18009,7 @@
         <v>706</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="396" spans="1:9" ht="30">
@@ -18038,7 +18038,7 @@
         <v>706</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="397" spans="1:9" ht="30">
@@ -18067,7 +18067,7 @@
         <v>706</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="398" spans="1:9" ht="30">
@@ -18096,7 +18096,7 @@
         <v>706</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="399" spans="1:9" ht="30">
@@ -18125,7 +18125,7 @@
         <v>706</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="400" spans="1:9" ht="30">
@@ -18154,7 +18154,7 @@
         <v>706</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="401" spans="1:9" ht="30">
@@ -18183,7 +18183,7 @@
         <v>706</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="402" spans="1:9" ht="30">
@@ -18212,7 +18212,7 @@
         <v>706</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="30">
@@ -18239,7 +18239,7 @@
         <v>706</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="30">
@@ -18268,7 +18268,7 @@
         <v>706</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="405" spans="1:9" ht="30">
@@ -18295,7 +18295,7 @@
         <v>706</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="406" spans="1:9" ht="30">
@@ -18324,7 +18324,7 @@
         <v>706</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="30">
@@ -18351,7 +18351,7 @@
         <v>706</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="30">
@@ -18378,7 +18378,7 @@
         <v>706</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="409" spans="1:9" ht="30">
@@ -18407,7 +18407,7 @@
         <v>706</v>
       </c>
       <c r="I409" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="410" spans="1:9" ht="30">
@@ -18436,7 +18436,7 @@
         <v>706</v>
       </c>
       <c r="I410" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="30">
@@ -18465,7 +18465,7 @@
         <v>706</v>
       </c>
       <c r="I411" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="30">
@@ -18494,7 +18494,7 @@
         <v>706</v>
       </c>
       <c r="I412" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="30">
@@ -18523,7 +18523,7 @@
         <v>706</v>
       </c>
       <c r="I413" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="414" spans="1:9" ht="30">
@@ -18552,7 +18552,7 @@
         <v>706</v>
       </c>
       <c r="I414" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="415" spans="1:9" ht="30">
@@ -18581,7 +18581,7 @@
         <v>706</v>
       </c>
       <c r="I415" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="30">
@@ -18610,7 +18610,7 @@
         <v>706</v>
       </c>
       <c r="I416" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="417" spans="1:9" ht="30">
@@ -18639,7 +18639,7 @@
         <v>706</v>
       </c>
       <c r="I417" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="418" spans="1:9" ht="30">
@@ -18668,7 +18668,7 @@
         <v>706</v>
       </c>
       <c r="I418" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="419" spans="1:9" ht="30">
@@ -18697,7 +18697,7 @@
         <v>706</v>
       </c>
       <c r="I419" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="420" spans="1:9" ht="30">
@@ -18726,7 +18726,7 @@
         <v>706</v>
       </c>
       <c r="I420" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="421" spans="1:9" ht="30">
@@ -18755,7 +18755,7 @@
         <v>706</v>
       </c>
       <c r="I421" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="422" spans="1:9" ht="30">
@@ -18784,7 +18784,7 @@
         <v>706</v>
       </c>
       <c r="I422" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="423" spans="1:9" ht="30">
@@ -18813,7 +18813,7 @@
         <v>706</v>
       </c>
       <c r="I423" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="424" spans="1:9" ht="30">
@@ -18842,7 +18842,7 @@
         <v>706</v>
       </c>
       <c r="I424" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="425" spans="1:9" ht="30">
@@ -18871,7 +18871,7 @@
         <v>706</v>
       </c>
       <c r="I425" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="426" spans="1:9" ht="30">
@@ -18900,7 +18900,7 @@
         <v>706</v>
       </c>
       <c r="I426" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="427" spans="1:9" ht="30">
@@ -18929,7 +18929,7 @@
         <v>706</v>
       </c>
       <c r="I427" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="428" spans="1:9" ht="30">
@@ -18958,7 +18958,7 @@
         <v>706</v>
       </c>
       <c r="I428" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="429" spans="1:9" ht="30">
@@ -18987,7 +18987,7 @@
         <v>706</v>
       </c>
       <c r="I429" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="430" spans="1:9" ht="30">
@@ -19016,7 +19016,7 @@
         <v>706</v>
       </c>
       <c r="I430" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="431" spans="1:9" ht="30">
@@ -19045,7 +19045,7 @@
         <v>706</v>
       </c>
       <c r="I431" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="432" spans="1:9" ht="30">
@@ -19074,7 +19074,7 @@
         <v>706</v>
       </c>
       <c r="I432" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="30">
@@ -19103,7 +19103,7 @@
         <v>706</v>
       </c>
       <c r="I433" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="30">
@@ -19132,7 +19132,7 @@
         <v>706</v>
       </c>
       <c r="I434" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="30">
@@ -19161,7 +19161,7 @@
         <v>706</v>
       </c>
       <c r="I435" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="436" spans="1:9" ht="30">
@@ -19190,7 +19190,7 @@
         <v>706</v>
       </c>
       <c r="I436" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="437" spans="1:9" ht="30">
@@ -19219,7 +19219,7 @@
         <v>706</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="438" spans="1:9" ht="30">
@@ -19248,7 +19248,7 @@
         <v>706</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="439" spans="1:9" ht="30">
@@ -19277,7 +19277,7 @@
         <v>706</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="440" spans="1:9" ht="30">
@@ -19306,7 +19306,7 @@
         <v>706</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="441" spans="1:9" ht="30">
@@ -19335,7 +19335,7 @@
         <v>706</v>
       </c>
       <c r="I441" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="442" spans="1:9" ht="30">
@@ -19364,7 +19364,7 @@
         <v>706</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="443" spans="1:9" ht="30">
@@ -19393,7 +19393,7 @@
         <v>706</v>
       </c>
       <c r="I443" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="444" spans="1:9" ht="30">
@@ -19422,7 +19422,7 @@
         <v>706</v>
       </c>
       <c r="I444" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="445" spans="1:9" ht="30">
@@ -19451,7 +19451,7 @@
         <v>706</v>
       </c>
       <c r="I445" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="446" spans="1:9" ht="30">
@@ -19480,7 +19480,7 @@
         <v>706</v>
       </c>
       <c r="I446" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="447" spans="1:9" ht="30">
@@ -19509,7 +19509,7 @@
         <v>706</v>
       </c>
       <c r="I447" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="30">
@@ -19538,7 +19538,7 @@
         <v>706</v>
       </c>
       <c r="I448" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="449" spans="1:9" ht="30">
@@ -19567,7 +19567,7 @@
         <v>706</v>
       </c>
       <c r="I449" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="450" spans="1:9" ht="30">
@@ -19596,7 +19596,7 @@
         <v>706</v>
       </c>
       <c r="I450" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="451" spans="1:9" ht="30">
@@ -19625,7 +19625,7 @@
         <v>706</v>
       </c>
       <c r="I451" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="452" spans="1:9" ht="30">
@@ -19654,7 +19654,7 @@
         <v>706</v>
       </c>
       <c r="I452" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="453" spans="1:9" ht="30">
@@ -19683,7 +19683,7 @@
         <v>706</v>
       </c>
       <c r="I453" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="454" spans="1:9" ht="30">
@@ -19712,7 +19712,7 @@
         <v>706</v>
       </c>
       <c r="I454" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="455" spans="1:9" ht="30">
@@ -19741,7 +19741,7 @@
         <v>706</v>
       </c>
       <c r="I455" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="456" spans="1:9" ht="30">
@@ -19770,7 +19770,7 @@
         <v>706</v>
       </c>
       <c r="I456" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="457" spans="1:9" ht="30">
@@ -19799,7 +19799,7 @@
         <v>706</v>
       </c>
       <c r="I457" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="458" spans="1:9" ht="30">
@@ -19828,7 +19828,7 @@
         <v>706</v>
       </c>
       <c r="I458" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="459" spans="1:9" ht="30">
@@ -19857,7 +19857,7 @@
         <v>706</v>
       </c>
       <c r="I459" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="460" spans="1:9" ht="30">
@@ -19886,7 +19886,7 @@
         <v>706</v>
       </c>
       <c r="I460" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="461" spans="1:9" ht="30">
@@ -19915,7 +19915,7 @@
         <v>706</v>
       </c>
       <c r="I461" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="462" spans="1:9" ht="30">
@@ -19944,7 +19944,7 @@
         <v>706</v>
       </c>
       <c r="I462" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="463" spans="1:9" ht="30">
@@ -19973,7 +19973,7 @@
         <v>706</v>
       </c>
       <c r="I463" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="464" spans="1:9" ht="30">
@@ -20002,7 +20002,7 @@
         <v>706</v>
       </c>
       <c r="I464" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="465" spans="1:9" ht="30">
@@ -20031,7 +20031,7 @@
         <v>706</v>
       </c>
       <c r="I465" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="466" spans="1:9" ht="30">
@@ -20060,7 +20060,7 @@
         <v>706</v>
       </c>
       <c r="I466" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="467" spans="1:9" ht="30">
@@ -20089,7 +20089,7 @@
         <v>706</v>
       </c>
       <c r="I467" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="468" spans="1:9" ht="30">
@@ -20118,7 +20118,7 @@
         <v>706</v>
       </c>
       <c r="I468" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="469" spans="1:9" ht="30">
@@ -20147,7 +20147,7 @@
         <v>706</v>
       </c>
       <c r="I469" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="470" spans="1:9" ht="30">
@@ -20174,7 +20174,7 @@
         <v>706</v>
       </c>
       <c r="I470" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="471" spans="1:9" ht="30">
@@ -20203,7 +20203,7 @@
         <v>706</v>
       </c>
       <c r="I471" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="472" spans="1:9" ht="30">
@@ -20230,7 +20230,7 @@
         <v>706</v>
       </c>
       <c r="I472" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="473" spans="1:9" ht="30">
@@ -20259,7 +20259,7 @@
         <v>706</v>
       </c>
       <c r="I473" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="474" spans="1:9" ht="30">
@@ -20288,7 +20288,7 @@
         <v>706</v>
       </c>
       <c r="I474" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="475" spans="1:9" ht="30">
@@ -20317,7 +20317,7 @@
         <v>706</v>
       </c>
       <c r="I475" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="476" spans="1:9" ht="30">
@@ -20346,7 +20346,7 @@
         <v>706</v>
       </c>
       <c r="I476" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="477" spans="1:9" ht="30">
@@ -20375,7 +20375,7 @@
         <v>706</v>
       </c>
       <c r="I477" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="478" spans="1:9" ht="30">
@@ -20404,7 +20404,7 @@
         <v>706</v>
       </c>
       <c r="I478" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="479" spans="1:9" ht="30">
@@ -20433,7 +20433,7 @@
         <v>706</v>
       </c>
       <c r="I479" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="480" spans="1:9" ht="30">
@@ -20462,7 +20462,7 @@
         <v>706</v>
       </c>
       <c r="I480" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="30">
@@ -20491,7 +20491,7 @@
         <v>706</v>
       </c>
       <c r="I481" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="482" spans="1:9" ht="30">
@@ -20520,7 +20520,7 @@
         <v>706</v>
       </c>
       <c r="I482" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="483" spans="1:9" ht="30">
@@ -20549,7 +20549,7 @@
         <v>706</v>
       </c>
       <c r="I483" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="484" spans="1:9" ht="30">
@@ -20578,7 +20578,7 @@
         <v>706</v>
       </c>
       <c r="I484" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="30">
@@ -20607,7 +20607,7 @@
         <v>706</v>
       </c>
       <c r="I485" s="5" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="486" spans="1:9" ht="45">
@@ -20636,7 +20636,7 @@
         <v>701</v>
       </c>
       <c r="I486" s="5" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="487" spans="1:9" ht="45">
@@ -20665,7 +20665,7 @@
         <v>701</v>
       </c>
       <c r="I487" s="5" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="488" spans="1:9" ht="45">
@@ -20694,7 +20694,7 @@
         <v>702</v>
       </c>
       <c r="I488" s="5" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="45">
@@ -20953,7 +20953,7 @@
       </c>
       <c r="H497" s="9"/>
       <c r="I497" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="498" spans="1:9" ht="30">
@@ -20980,7 +20980,7 @@
       </c>
       <c r="H498" s="9"/>
       <c r="I498" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="499" spans="1:9" ht="30">
@@ -21007,7 +21007,7 @@
       </c>
       <c r="H499" s="9"/>
       <c r="I499" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="500" spans="1:9" ht="30">
@@ -21034,7 +21034,7 @@
       </c>
       <c r="H500" s="9"/>
       <c r="I500" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="501" spans="1:9" ht="30">
@@ -21061,7 +21061,7 @@
       </c>
       <c r="H501" s="9"/>
       <c r="I501" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="502" spans="1:9" ht="30">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="H502" s="9"/>
       <c r="I502" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="503" spans="1:9" ht="30">
@@ -21115,7 +21115,7 @@
       </c>
       <c r="H503" s="9"/>
       <c r="I503" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="504" spans="1:9" ht="30">
@@ -21142,7 +21142,7 @@
       </c>
       <c r="H504" s="9"/>
       <c r="I504" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="505" spans="1:9" ht="30">
@@ -21169,7 +21169,7 @@
       </c>
       <c r="H505" s="9"/>
       <c r="I505" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="506" spans="1:9" ht="30">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="H506" s="9"/>
       <c r="I506" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="507" spans="1:9" ht="30">
@@ -21223,7 +21223,7 @@
       </c>
       <c r="H507" s="9"/>
       <c r="I507" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="508" spans="1:9" ht="30">
@@ -21250,7 +21250,7 @@
       </c>
       <c r="H508" s="9"/>
       <c r="I508" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="509" spans="1:9" ht="30">
@@ -21277,7 +21277,7 @@
       </c>
       <c r="H509" s="9"/>
       <c r="I509" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="510" spans="1:9" ht="30">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="H510" s="9"/>
       <c r="I510" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="511" spans="1:9" ht="30">
@@ -21331,7 +21331,7 @@
       </c>
       <c r="H511" s="9"/>
       <c r="I511" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="512" spans="1:9" ht="30">
@@ -21358,7 +21358,7 @@
       </c>
       <c r="H512" s="9"/>
       <c r="I512" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="513" spans="1:9" ht="30">
@@ -21385,7 +21385,7 @@
       </c>
       <c r="H513" s="9"/>
       <c r="I513" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="514" spans="1:9" ht="30">
@@ -21412,7 +21412,7 @@
       </c>
       <c r="H514" s="9"/>
       <c r="I514" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="515" spans="1:9" ht="30">
@@ -21439,7 +21439,7 @@
       </c>
       <c r="H515" s="9"/>
       <c r="I515" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="516" spans="1:9" ht="45">
@@ -21463,7 +21463,7 @@
       </c>
       <c r="H516" s="9"/>
       <c r="I516" s="5" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="517" spans="1:9" ht="45">
@@ -21487,7 +21487,7 @@
       </c>
       <c r="H517" s="9"/>
       <c r="I517" s="5" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="518" spans="1:9" ht="45">
@@ -21511,7 +21511,7 @@
       </c>
       <c r="H518" s="9"/>
       <c r="I518" s="5" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="519" spans="1:9" ht="45">
@@ -21535,7 +21535,7 @@
       </c>
       <c r="H519" s="9"/>
       <c r="I519" s="5" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="520" spans="1:9" ht="45">
@@ -21559,7 +21559,7 @@
       </c>
       <c r="H520" s="9"/>
       <c r="I520" s="5" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="521" spans="1:9" ht="45">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="H521" s="9"/>
       <c r="I521" s="5" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="522" spans="1:9" ht="45">
@@ -21607,7 +21607,7 @@
       </c>
       <c r="H522" s="9"/>
       <c r="I522" s="5" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="523" spans="1:9" ht="30">
@@ -21634,7 +21634,7 @@
       </c>
       <c r="H523" s="9"/>
       <c r="I523" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="524" spans="1:9" ht="30">
@@ -21661,7 +21661,7 @@
       </c>
       <c r="H524" s="9"/>
       <c r="I524" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="525" spans="1:9" ht="30">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="H525" s="9"/>
       <c r="I525" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="526" spans="1:9" ht="30">
@@ -21715,7 +21715,7 @@
       </c>
       <c r="H526" s="9"/>
       <c r="I526" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="527" spans="1:9" ht="30">
@@ -21742,7 +21742,7 @@
       </c>
       <c r="H527" s="9"/>
       <c r="I527" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="528" spans="1:9" ht="30">
@@ -21769,7 +21769,7 @@
       </c>
       <c r="H528" s="9"/>
       <c r="I528" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="529" spans="1:9" ht="30">
@@ -21796,7 +21796,7 @@
       </c>
       <c r="H529" s="9"/>
       <c r="I529" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="530" spans="1:9" ht="30">
@@ -21823,7 +21823,7 @@
       </c>
       <c r="H530" s="9"/>
       <c r="I530" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="531" spans="1:9" ht="30">
@@ -21850,7 +21850,7 @@
       </c>
       <c r="H531" s="9"/>
       <c r="I531" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="532" spans="1:9" ht="30">
@@ -21877,7 +21877,7 @@
       </c>
       <c r="H532" s="9"/>
       <c r="I532" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="533" spans="1:9" ht="30">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="H533" s="9"/>
       <c r="I533" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="534" spans="1:9" ht="30">
@@ -21931,7 +21931,7 @@
       </c>
       <c r="H534" s="9"/>
       <c r="I534" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="535" spans="1:9" ht="30">
@@ -21958,7 +21958,7 @@
       </c>
       <c r="H535" s="9"/>
       <c r="I535" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="536" spans="1:9" ht="30">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="H536" s="9"/>
       <c r="I536" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="537" spans="1:9" ht="30">
@@ -22012,7 +22012,7 @@
       </c>
       <c r="H537" s="9"/>
       <c r="I537" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="538" spans="1:9" ht="30">
@@ -22039,7 +22039,7 @@
       </c>
       <c r="H538" s="9"/>
       <c r="I538" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="539" spans="1:9" ht="30">
@@ -22066,7 +22066,7 @@
       </c>
       <c r="H539" s="9"/>
       <c r="I539" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="540" spans="1:9" ht="30">
@@ -22093,7 +22093,7 @@
       </c>
       <c r="H540" s="9"/>
       <c r="I540" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="541" spans="1:9" ht="30">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="H541" s="9"/>
       <c r="I541" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="542" spans="1:9" ht="30">
@@ -22147,7 +22147,7 @@
       </c>
       <c r="H542" s="9"/>
       <c r="I542" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="543" spans="1:9" ht="30">
@@ -22174,7 +22174,7 @@
       </c>
       <c r="H543" s="9"/>
       <c r="I543" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="544" spans="1:9" ht="30">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="H544" s="9"/>
       <c r="I544" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="545" spans="1:9" ht="30">
@@ -22228,7 +22228,7 @@
       </c>
       <c r="H545" s="9"/>
       <c r="I545" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="546" spans="1:9" ht="30">
@@ -22255,7 +22255,7 @@
       </c>
       <c r="H546" s="9"/>
       <c r="I546" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="547" spans="1:9" ht="30">
@@ -22282,7 +22282,7 @@
       </c>
       <c r="H547" s="9"/>
       <c r="I547" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="548" spans="1:9" ht="30">
@@ -22309,7 +22309,7 @@
       </c>
       <c r="H548" s="9"/>
       <c r="I548" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="549" spans="1:9" ht="30">
@@ -22336,7 +22336,7 @@
       </c>
       <c r="H549" s="9"/>
       <c r="I549" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="550" spans="1:9" ht="30">
@@ -22363,7 +22363,7 @@
       </c>
       <c r="H550" s="9"/>
       <c r="I550" s="14" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="551" spans="1:9" ht="30">
@@ -22390,7 +22390,7 @@
       </c>
       <c r="H551" s="9"/>
       <c r="I551" s="14" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="552" spans="1:9" ht="30">
@@ -22417,7 +22417,7 @@
       </c>
       <c r="H552" s="9"/>
       <c r="I552" s="14" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="553" spans="1:9" ht="30">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="H553" s="9"/>
       <c r="I553" s="14" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="554" spans="1:9" ht="30">
@@ -22471,7 +22471,7 @@
       </c>
       <c r="H554" s="9"/>
       <c r="I554" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="555" spans="1:9" ht="30">
@@ -22498,7 +22498,7 @@
       </c>
       <c r="H555" s="9"/>
       <c r="I555" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="556" spans="1:9" ht="30">
@@ -22525,7 +22525,7 @@
       </c>
       <c r="H556" s="9"/>
       <c r="I556" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="557" spans="1:9" ht="30">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="H557" s="9"/>
       <c r="I557" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="558" spans="1:9" ht="30">
@@ -22579,7 +22579,7 @@
       </c>
       <c r="H558" s="9"/>
       <c r="I558" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="559" spans="1:9" ht="30">
@@ -22606,7 +22606,7 @@
       </c>
       <c r="H559" s="9"/>
       <c r="I559" s="14" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="560" spans="1:9" ht="30">
@@ -22687,7 +22687,7 @@
       </c>
       <c r="H562" s="9"/>
       <c r="I562" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="563" spans="1:9" ht="30">
@@ -22714,7 +22714,7 @@
       </c>
       <c r="H563" s="9"/>
       <c r="I563" s="14" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="564" spans="1:9" ht="45">
@@ -22738,7 +22738,7 @@
       </c>
       <c r="H564" s="9"/>
       <c r="I564" s="5" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="565" spans="1:9" ht="45">
@@ -22762,7 +22762,7 @@
       </c>
       <c r="H565" s="9"/>
       <c r="I565" s="5" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="566" spans="1:9" ht="45">
@@ -22786,7 +22786,7 @@
       </c>
       <c r="H566" s="9"/>
       <c r="I566" s="5" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="567" spans="1:9" ht="30">
@@ -22813,7 +22813,7 @@
       </c>
       <c r="H567" s="9"/>
       <c r="I567" s="5" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="568" spans="1:9" ht="30">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="H568" s="9"/>
       <c r="I568" s="14" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="569" spans="1:9" ht="30">
@@ -22867,7 +22867,7 @@
       </c>
       <c r="H569" s="9"/>
       <c r="I569" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="570" spans="1:9" ht="30">
@@ -22894,7 +22894,7 @@
       </c>
       <c r="H570" s="9"/>
       <c r="I570" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="571" spans="1:9" ht="30">
@@ -22921,7 +22921,7 @@
       </c>
       <c r="H571" s="9"/>
       <c r="I571" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="572" spans="1:9" ht="30">
@@ -22948,7 +22948,7 @@
       </c>
       <c r="H572" s="9"/>
       <c r="I572" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="573" spans="1:9" ht="30">
@@ -22975,7 +22975,7 @@
       </c>
       <c r="H573" s="9"/>
       <c r="I573" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="574" spans="1:9" ht="30">
@@ -23002,7 +23002,7 @@
       </c>
       <c r="H574" s="9"/>
       <c r="I574" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="575" spans="1:9" ht="30">
@@ -23029,7 +23029,7 @@
       </c>
       <c r="H575" s="9"/>
       <c r="I575" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="576" spans="1:9" ht="30">
@@ -23056,7 +23056,7 @@
       </c>
       <c r="H576" s="9"/>
       <c r="I576" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="577" spans="1:9" ht="30">
@@ -23083,7 +23083,7 @@
       </c>
       <c r="H577" s="9"/>
       <c r="I577" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="578" spans="1:9" ht="30">
@@ -23110,7 +23110,7 @@
       </c>
       <c r="H578" s="9"/>
       <c r="I578" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="579" spans="1:9" ht="30">
@@ -23137,7 +23137,7 @@
       </c>
       <c r="H579" s="9"/>
       <c r="I579" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="580" spans="1:9" ht="30">
@@ -23164,7 +23164,7 @@
       </c>
       <c r="H580" s="9"/>
       <c r="I580" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="581" spans="1:9" ht="30">
@@ -23191,7 +23191,7 @@
       </c>
       <c r="H581" s="9"/>
       <c r="I581" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="582" spans="1:9" ht="30">
@@ -23218,7 +23218,7 @@
       </c>
       <c r="H582" s="9"/>
       <c r="I582" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="583" spans="1:9" ht="30">
@@ -23245,7 +23245,7 @@
       </c>
       <c r="H583" s="9"/>
       <c r="I583" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="584" spans="1:9" ht="30">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="H584" s="9"/>
       <c r="I584" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="585" spans="1:9" ht="30">
@@ -23299,7 +23299,7 @@
       </c>
       <c r="H585" s="9"/>
       <c r="I585" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="586" spans="1:9" ht="30">
@@ -23326,7 +23326,7 @@
       </c>
       <c r="H586" s="9"/>
       <c r="I586" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="587" spans="1:9" ht="30">
@@ -23353,7 +23353,7 @@
       </c>
       <c r="H587" s="9"/>
       <c r="I587" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="588" spans="1:9" ht="30">
@@ -23380,7 +23380,7 @@
       </c>
       <c r="H588" s="9"/>
       <c r="I588" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="589" spans="1:9" ht="30">
@@ -23407,7 +23407,7 @@
       </c>
       <c r="H589" s="9"/>
       <c r="I589" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="590" spans="1:9" ht="30">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="H590" s="9"/>
       <c r="I590" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="591" spans="1:9" ht="30">
@@ -23461,7 +23461,7 @@
       </c>
       <c r="H591" s="9"/>
       <c r="I591" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="592" spans="1:9" ht="30">
@@ -23488,7 +23488,7 @@
       </c>
       <c r="H592" s="9"/>
       <c r="I592" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="593" spans="1:9" ht="30">
@@ -23515,7 +23515,7 @@
       </c>
       <c r="H593" s="9"/>
       <c r="I593" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="594" spans="1:9" ht="30">
@@ -23542,7 +23542,7 @@
       </c>
       <c r="H594" s="9"/>
       <c r="I594" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="595" spans="1:9" ht="30">
@@ -23569,7 +23569,7 @@
       </c>
       <c r="H595" s="9"/>
       <c r="I595" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="596" spans="1:9" ht="30">
@@ -23596,7 +23596,7 @@
       </c>
       <c r="H596" s="9"/>
       <c r="I596" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="597" spans="1:9" ht="30">
@@ -23623,7 +23623,7 @@
       </c>
       <c r="H597" s="9"/>
       <c r="I597" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="598" spans="1:9" ht="30">
@@ -23650,7 +23650,7 @@
       </c>
       <c r="H598" s="9"/>
       <c r="I598" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="599" spans="1:9" ht="30">
@@ -23677,7 +23677,7 @@
       </c>
       <c r="H599" s="9"/>
       <c r="I599" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="600" spans="1:9" ht="30">
@@ -23704,7 +23704,7 @@
       </c>
       <c r="H600" s="9"/>
       <c r="I600" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="601" spans="1:9" ht="30">
@@ -23731,7 +23731,7 @@
       </c>
       <c r="H601" s="9"/>
       <c r="I601" s="14" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="602" spans="1:9" ht="30">
@@ -23758,7 +23758,7 @@
       </c>
       <c r="H602" s="9"/>
       <c r="I602" s="14" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="603" spans="1:9" ht="30">
@@ -23785,7 +23785,7 @@
       </c>
       <c r="H603" s="9"/>
       <c r="I603" s="5" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="604" spans="1:9" ht="30">
@@ -23812,7 +23812,7 @@
       </c>
       <c r="H604" s="9"/>
       <c r="I604" s="5" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="605" spans="1:9" ht="30">
@@ -23839,7 +23839,7 @@
       </c>
       <c r="H605" s="9"/>
       <c r="I605" s="5" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="606" spans="1:9" ht="30">
@@ -23866,7 +23866,7 @@
       </c>
       <c r="H606" s="9"/>
       <c r="I606" s="5" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="607" spans="1:9" ht="30">
@@ -23893,7 +23893,7 @@
       </c>
       <c r="H607" s="9"/>
       <c r="I607" s="5" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="608" spans="1:9" ht="30">
@@ -23920,7 +23920,7 @@
       </c>
       <c r="H608" s="9"/>
       <c r="I608" s="5" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="609" spans="1:9" ht="30">
@@ -23947,7 +23947,7 @@
       </c>
       <c r="H609" s="9"/>
       <c r="I609" s="5" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="610" spans="1:9" ht="30">
@@ -23974,7 +23974,7 @@
       </c>
       <c r="H610" s="9"/>
       <c r="I610" s="5" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="611" spans="1:9" ht="30">
@@ -24001,7 +24001,7 @@
       </c>
       <c r="H611" s="9"/>
       <c r="I611" s="5" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="612" spans="1:9" ht="30">
@@ -24028,7 +24028,7 @@
       </c>
       <c r="H612" s="9"/>
       <c r="I612" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="613" spans="1:9" ht="30">
@@ -24055,7 +24055,7 @@
       </c>
       <c r="H613" s="9"/>
       <c r="I613" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="614" spans="1:9" ht="30">
@@ -24082,7 +24082,7 @@
       </c>
       <c r="H614" s="9"/>
       <c r="I614" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="615" spans="1:9" ht="30">
@@ -24109,7 +24109,7 @@
       </c>
       <c r="H615" s="9"/>
       <c r="I615" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="616" spans="1:9" ht="30">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="H616" s="9"/>
       <c r="I616" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="617" spans="1:9" ht="30">
@@ -24163,7 +24163,7 @@
       </c>
       <c r="H617" s="9"/>
       <c r="I617" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="618" spans="1:9" ht="30">
@@ -24190,7 +24190,7 @@
       </c>
       <c r="H618" s="9"/>
       <c r="I618" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="619" spans="1:9" ht="30">
@@ -24217,7 +24217,7 @@
       </c>
       <c r="H619" s="9"/>
       <c r="I619" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="620" spans="1:9" ht="30">
@@ -24244,7 +24244,7 @@
       </c>
       <c r="H620" s="9"/>
       <c r="I620" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="621" spans="1:9" ht="30">
@@ -24271,7 +24271,7 @@
       </c>
       <c r="H621" s="9"/>
       <c r="I621" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="622" spans="1:9" ht="30">
@@ -24298,7 +24298,7 @@
       </c>
       <c r="H622" s="9"/>
       <c r="I622" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="623" spans="1:9" ht="30">
@@ -24325,7 +24325,7 @@
       </c>
       <c r="H623" s="9"/>
       <c r="I623" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="624" spans="1:9" ht="30">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="H624" s="9"/>
       <c r="I624" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="625" spans="1:9" ht="30">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="H625" s="9"/>
       <c r="I625" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="626" spans="1:9" ht="30">
@@ -24406,7 +24406,7 @@
       </c>
       <c r="H626" s="9"/>
       <c r="I626" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="627" spans="1:9" ht="30">
@@ -24433,7 +24433,7 @@
       </c>
       <c r="H627" s="9"/>
       <c r="I627" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="628" spans="1:9" ht="30">
@@ -24460,7 +24460,7 @@
       </c>
       <c r="H628" s="9"/>
       <c r="I628" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="629" spans="1:9" ht="30">
@@ -24487,7 +24487,7 @@
       </c>
       <c r="H629" s="9"/>
       <c r="I629" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="630" spans="1:9" ht="30">
@@ -24514,7 +24514,7 @@
       </c>
       <c r="H630" s="9"/>
       <c r="I630" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="631" spans="1:9" ht="30">
@@ -24541,7 +24541,7 @@
       </c>
       <c r="H631" s="9"/>
       <c r="I631" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="632" spans="1:9" ht="30">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="H632" s="9"/>
       <c r="I632" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="633" spans="1:9" ht="30">
@@ -24595,7 +24595,7 @@
       </c>
       <c r="H633" s="9"/>
       <c r="I633" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="634" spans="1:9" ht="30">
@@ -24622,7 +24622,7 @@
       </c>
       <c r="H634" s="9"/>
       <c r="I634" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="635" spans="1:9" ht="30">
@@ -24649,7 +24649,7 @@
       </c>
       <c r="H635" s="9"/>
       <c r="I635" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="636" spans="1:9" ht="30">
@@ -24676,7 +24676,7 @@
       </c>
       <c r="H636" s="9"/>
       <c r="I636" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="637" spans="1:9" ht="30">
@@ -24703,7 +24703,7 @@
       </c>
       <c r="H637" s="9"/>
       <c r="I637" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="638" spans="1:9" ht="30">
@@ -24730,7 +24730,7 @@
       </c>
       <c r="H638" s="9"/>
       <c r="I638" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="639" spans="1:9" ht="30">
@@ -24757,7 +24757,7 @@
       </c>
       <c r="H639" s="9"/>
       <c r="I639" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="640" spans="1:9" ht="30">
@@ -24784,7 +24784,7 @@
       </c>
       <c r="H640" s="9"/>
       <c r="I640" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="641" spans="1:9" ht="30">
@@ -24811,7 +24811,7 @@
       </c>
       <c r="H641" s="9"/>
       <c r="I641" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="642" spans="1:9" ht="30">
@@ -24838,7 +24838,7 @@
       </c>
       <c r="H642" s="9"/>
       <c r="I642" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="643" spans="1:9" ht="30">
@@ -24862,7 +24862,7 @@
       </c>
       <c r="H643" s="9"/>
       <c r="I643" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="644" spans="1:9" ht="30">
@@ -24886,7 +24886,7 @@
       </c>
       <c r="H644" s="9"/>
       <c r="I644" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="645" spans="1:9" ht="30">
@@ -24910,7 +24910,7 @@
       </c>
       <c r="H645" s="9"/>
       <c r="I645" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="646" spans="1:9" ht="45">
@@ -24934,7 +24934,7 @@
       </c>
       <c r="H646" s="9"/>
       <c r="I646" s="14" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="647" spans="1:9" ht="45">
@@ -24958,7 +24958,7 @@
       </c>
       <c r="H647" s="9"/>
       <c r="I647" s="14" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="648" spans="1:9" ht="30">
@@ -24985,7 +24985,7 @@
       </c>
       <c r="H648" s="9"/>
       <c r="I648" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="649" spans="1:9" ht="30">
@@ -25012,7 +25012,7 @@
       </c>
       <c r="H649" s="9"/>
       <c r="I649" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="650" spans="1:9" ht="30">
@@ -25039,7 +25039,7 @@
       </c>
       <c r="H650" s="9"/>
       <c r="I650" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="651" spans="1:9" ht="30">
@@ -25066,7 +25066,7 @@
       </c>
       <c r="H651" s="9"/>
       <c r="I651" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="652" spans="1:9" ht="30">
@@ -25093,7 +25093,7 @@
       </c>
       <c r="H652" s="9"/>
       <c r="I652" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="653" spans="1:9" ht="30">
@@ -25120,7 +25120,7 @@
       </c>
       <c r="H653" s="9"/>
       <c r="I653" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="654" spans="1:9" ht="30">
@@ -25147,7 +25147,7 @@
       </c>
       <c r="H654" s="9"/>
       <c r="I654" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="655" spans="1:9" ht="30">
@@ -25174,7 +25174,7 @@
       </c>
       <c r="H655" s="9"/>
       <c r="I655" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="656" spans="1:9" ht="30">
@@ -25201,7 +25201,7 @@
       </c>
       <c r="H656" s="9"/>
       <c r="I656" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="657" spans="1:9" ht="30">
@@ -25228,7 +25228,7 @@
       </c>
       <c r="H657" s="9"/>
       <c r="I657" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="658" spans="1:9" ht="30">
@@ -25255,7 +25255,7 @@
       </c>
       <c r="H658" s="9"/>
       <c r="I658" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="659" spans="1:9" ht="30">
@@ -25282,7 +25282,7 @@
       </c>
       <c r="H659" s="9"/>
       <c r="I659" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="660" spans="1:9" ht="30">
@@ -25309,7 +25309,7 @@
       </c>
       <c r="H660" s="9"/>
       <c r="I660" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="661" spans="1:9" ht="30">
@@ -25336,7 +25336,7 @@
       </c>
       <c r="H661" s="9"/>
       <c r="I661" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="662" spans="1:9" ht="30">
@@ -25363,7 +25363,7 @@
       </c>
       <c r="H662" s="9"/>
       <c r="I662" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="663" spans="1:9" ht="30">
@@ -25390,7 +25390,7 @@
       </c>
       <c r="H663" s="9"/>
       <c r="I663" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="664" spans="1:9" ht="30">
@@ -25417,7 +25417,7 @@
       </c>
       <c r="H664" s="9"/>
       <c r="I664" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="665" spans="1:9" ht="30">
@@ -25444,7 +25444,7 @@
       </c>
       <c r="H665" s="9"/>
       <c r="I665" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="666" spans="1:9" ht="30">
@@ -25471,7 +25471,7 @@
       </c>
       <c r="H666" s="9"/>
       <c r="I666" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="667" spans="1:9" ht="30">
@@ -25498,7 +25498,7 @@
       </c>
       <c r="H667" s="9"/>
       <c r="I667" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="668" spans="1:9" ht="30">
@@ -25525,7 +25525,7 @@
       </c>
       <c r="H668" s="9"/>
       <c r="I668" s="14" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="669" spans="1:9" ht="30">
@@ -25552,7 +25552,7 @@
       </c>
       <c r="H669" s="9"/>
       <c r="I669" s="14" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="670" spans="1:9" ht="30">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="H670" s="9"/>
       <c r="I670" s="14" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="671" spans="1:9" ht="39">
@@ -25633,7 +25633,7 @@
       </c>
       <c r="H672" s="9"/>
       <c r="I672" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="673" spans="1:9" ht="30">
@@ -25660,7 +25660,7 @@
       </c>
       <c r="H673" s="9"/>
       <c r="I673" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="674" spans="1:9" ht="30">
@@ -25687,7 +25687,7 @@
       </c>
       <c r="H674" s="9"/>
       <c r="I674" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="675" spans="1:9" ht="30">
@@ -25714,7 +25714,7 @@
       </c>
       <c r="H675" s="9"/>
       <c r="I675" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="676" spans="1:9" ht="30">
@@ -25741,7 +25741,7 @@
       </c>
       <c r="H676" s="9"/>
       <c r="I676" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="677" spans="1:9" ht="30">
@@ -25768,7 +25768,7 @@
       </c>
       <c r="H677" s="9"/>
       <c r="I677" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="678" spans="1:9" ht="30">
@@ -25795,7 +25795,7 @@
       </c>
       <c r="H678" s="9"/>
       <c r="I678" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="679" spans="1:9" ht="30">
@@ -25822,7 +25822,7 @@
       </c>
       <c r="H679" s="9"/>
       <c r="I679" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="680" spans="1:9" ht="30">
@@ -25849,7 +25849,7 @@
       </c>
       <c r="H680" s="9"/>
       <c r="I680" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="681" spans="1:9" ht="30">
@@ -25876,7 +25876,7 @@
       </c>
       <c r="H681" s="9"/>
       <c r="I681" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="682" spans="1:9" ht="30">
@@ -25903,7 +25903,7 @@
       </c>
       <c r="H682" s="9"/>
       <c r="I682" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="683" spans="1:9" ht="30">
@@ -25930,7 +25930,7 @@
       </c>
       <c r="H683" s="9"/>
       <c r="I683" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="684" spans="1:9" ht="30">
@@ -25957,7 +25957,7 @@
       </c>
       <c r="H684" s="9"/>
       <c r="I684" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="685" spans="1:9" ht="30">
@@ -25984,7 +25984,7 @@
       </c>
       <c r="H685" s="9"/>
       <c r="I685" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="686" spans="1:9" ht="30">
@@ -26011,7 +26011,7 @@
       </c>
       <c r="H686" s="9"/>
       <c r="I686" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="687" spans="1:9" ht="30">
@@ -26038,7 +26038,7 @@
       </c>
       <c r="H687" s="9"/>
       <c r="I687" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="688" spans="1:9" ht="30">
@@ -26065,7 +26065,7 @@
       </c>
       <c r="H688" s="9"/>
       <c r="I688" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="689" spans="1:9" ht="30">
@@ -26092,7 +26092,7 @@
       </c>
       <c r="H689" s="9"/>
       <c r="I689" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="690" spans="1:9" ht="45">
@@ -26148,7 +26148,7 @@
       </c>
       <c r="H691" s="9"/>
       <c r="I691" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="692" spans="1:9" ht="45">
@@ -26610,7 +26610,7 @@
       </c>
       <c r="H707" s="9"/>
       <c r="I707" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="708" spans="1:9" ht="45">
@@ -26695,7 +26695,7 @@
       </c>
       <c r="H710" s="9"/>
       <c r="I710" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="711" spans="1:9" ht="45">
@@ -26809,7 +26809,7 @@
       </c>
       <c r="H714" s="9"/>
       <c r="I714" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="715" spans="1:9" ht="45">
@@ -26836,7 +26836,7 @@
       </c>
       <c r="H715" s="9"/>
       <c r="I715" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="716" spans="1:9" ht="30">
@@ -26863,7 +26863,7 @@
       </c>
       <c r="H716" s="9"/>
       <c r="I716" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="717" spans="1:9" ht="30">
@@ -26890,7 +26890,7 @@
       </c>
       <c r="H717" s="9"/>
       <c r="I717" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="718" spans="1:9" ht="30">
@@ -26917,7 +26917,7 @@
       </c>
       <c r="H718" s="9"/>
       <c r="I718" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="719" spans="1:9" ht="30">
@@ -26944,7 +26944,7 @@
       </c>
       <c r="H719" s="9"/>
       <c r="I719" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="720" spans="1:9" ht="45">
@@ -27261,7 +27261,7 @@
       </c>
       <c r="H730" s="9"/>
       <c r="I730" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="731" spans="1:9" ht="30">
@@ -27288,7 +27288,7 @@
       </c>
       <c r="H731" s="9"/>
       <c r="I731" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="732" spans="1:9" ht="30">
@@ -27315,7 +27315,7 @@
       </c>
       <c r="H732" s="9"/>
       <c r="I732" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="733" spans="1:9" ht="30">
@@ -27342,7 +27342,7 @@
       </c>
       <c r="H733" s="9"/>
       <c r="I733" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="734" spans="1:9" ht="30">
@@ -27369,7 +27369,7 @@
       </c>
       <c r="H734" s="9"/>
       <c r="I734" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="735" spans="1:9" ht="30">
@@ -27396,7 +27396,7 @@
       </c>
       <c r="H735" s="9"/>
       <c r="I735" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="736" spans="1:9" ht="30">
@@ -27423,7 +27423,7 @@
       </c>
       <c r="H736" s="9"/>
       <c r="I736" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="737" spans="1:9" ht="30">
@@ -27450,7 +27450,7 @@
       </c>
       <c r="H737" s="9"/>
       <c r="I737" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="738" spans="1:9" ht="30">
@@ -27477,7 +27477,7 @@
       </c>
       <c r="H738" s="9"/>
       <c r="I738" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="739" spans="1:9" ht="30">
@@ -27504,7 +27504,7 @@
       </c>
       <c r="H739" s="9"/>
       <c r="I739" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="740" spans="1:9" ht="30">
@@ -27531,7 +27531,7 @@
       </c>
       <c r="H740" s="9"/>
       <c r="I740" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="741" spans="1:9" ht="30">
@@ -27558,7 +27558,7 @@
       </c>
       <c r="H741" s="9"/>
       <c r="I741" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="742" spans="1:9" ht="30">
@@ -27585,7 +27585,7 @@
       </c>
       <c r="H742" s="9"/>
       <c r="I742" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="743" spans="1:9" ht="30">
@@ -27612,7 +27612,7 @@
       </c>
       <c r="H743" s="9"/>
       <c r="I743" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="744" spans="1:9" ht="30">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="H744" s="9"/>
       <c r="I744" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="745" spans="1:9" ht="30">
@@ -27666,7 +27666,7 @@
       </c>
       <c r="H745" s="9"/>
       <c r="I745" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="746" spans="1:9" ht="45">
@@ -27751,7 +27751,7 @@
       </c>
       <c r="H748" s="9"/>
       <c r="I748" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="749" spans="1:9" ht="30">
@@ -27778,7 +27778,7 @@
       </c>
       <c r="H749" s="9"/>
       <c r="I749" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="750" spans="1:9" ht="30">
@@ -27805,7 +27805,7 @@
       </c>
       <c r="H750" s="9"/>
       <c r="I750" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="751" spans="1:9" ht="30">
@@ -27832,7 +27832,7 @@
       </c>
       <c r="H751" s="9"/>
       <c r="I751" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="752" spans="1:9" ht="30">
@@ -27859,7 +27859,7 @@
       </c>
       <c r="H752" s="9"/>
       <c r="I752" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="753" spans="1:9" ht="30">
@@ -27886,7 +27886,7 @@
       </c>
       <c r="H753" s="9"/>
       <c r="I753" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="754" spans="1:9" ht="30">
@@ -27913,7 +27913,7 @@
       </c>
       <c r="H754" s="9"/>
       <c r="I754" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="755" spans="1:9" ht="30">
@@ -27940,7 +27940,7 @@
       </c>
       <c r="H755" s="9"/>
       <c r="I755" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="756" spans="1:9" ht="30">
@@ -27967,7 +27967,7 @@
       </c>
       <c r="H756" s="9"/>
       <c r="I756" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="757" spans="1:9" ht="30">
@@ -27994,7 +27994,7 @@
       </c>
       <c r="H757" s="9"/>
       <c r="I757" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="758" spans="1:9" ht="30">
@@ -28021,7 +28021,7 @@
       </c>
       <c r="H758" s="9"/>
       <c r="I758" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="759" spans="1:9" ht="30">
@@ -28048,7 +28048,7 @@
       </c>
       <c r="H759" s="9"/>
       <c r="I759" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="760" spans="1:9" ht="30">
@@ -28075,7 +28075,7 @@
       </c>
       <c r="H760" s="9"/>
       <c r="I760" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="761" spans="1:9" ht="30">
@@ -28102,7 +28102,7 @@
       </c>
       <c r="H761" s="9"/>
       <c r="I761" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="762" spans="1:9" ht="30">
@@ -28129,7 +28129,7 @@
       </c>
       <c r="H762" s="9"/>
       <c r="I762" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="763" spans="1:9" ht="30">
@@ -28156,7 +28156,7 @@
       </c>
       <c r="H763" s="9"/>
       <c r="I763" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="764" spans="1:9" ht="30">
@@ -28183,7 +28183,7 @@
       </c>
       <c r="H764" s="9"/>
       <c r="I764" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="765" spans="1:9" ht="30">
@@ -28210,7 +28210,7 @@
       </c>
       <c r="H765" s="9"/>
       <c r="I765" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="766" spans="1:9" ht="30">
@@ -28239,7 +28239,7 @@
         <v>702</v>
       </c>
       <c r="I766" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="767" spans="1:9" ht="30">
@@ -28266,7 +28266,7 @@
       </c>
       <c r="H767" s="9"/>
       <c r="I767" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="768" spans="1:9" ht="30">
@@ -28293,7 +28293,7 @@
       </c>
       <c r="H768" s="9"/>
       <c r="I768" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="769" spans="1:9" ht="30">
@@ -28320,7 +28320,7 @@
       </c>
       <c r="H769" s="9"/>
       <c r="I769" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="770" spans="1:9" ht="30">
@@ -28347,7 +28347,7 @@
       </c>
       <c r="H770" s="9"/>
       <c r="I770" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="771" spans="1:9" ht="30">
@@ -28374,7 +28374,7 @@
       </c>
       <c r="H771" s="9"/>
       <c r="I771" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="772" spans="1:9" ht="30">
@@ -28401,7 +28401,7 @@
       </c>
       <c r="H772" s="9"/>
       <c r="I772" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="773" spans="1:9" ht="30">
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H773" s="9"/>
       <c r="I773" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="774" spans="1:9" ht="30">
@@ -28455,7 +28455,7 @@
       </c>
       <c r="H774" s="9"/>
       <c r="I774" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="775" spans="1:9" ht="30">
@@ -28482,7 +28482,7 @@
       </c>
       <c r="H775" s="9"/>
       <c r="I775" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="776" spans="1:9" ht="30">
@@ -28509,7 +28509,7 @@
       </c>
       <c r="H776" s="9"/>
       <c r="I776" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="777" spans="1:9" ht="30">
@@ -28538,7 +28538,7 @@
         <v>1468</v>
       </c>
       <c r="I777" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="778" spans="1:9" ht="30">
@@ -28567,7 +28567,7 @@
         <v>1468</v>
       </c>
       <c r="I778" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="779" spans="1:9" ht="30">
@@ -28596,7 +28596,7 @@
         <v>1468</v>
       </c>
       <c r="I779" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="780" spans="1:9" ht="30">
@@ -28625,7 +28625,7 @@
         <v>1468</v>
       </c>
       <c r="I780" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="781" spans="1:9" ht="30">
@@ -28652,7 +28652,7 @@
       </c>
       <c r="H781" s="9"/>
       <c r="I781" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="782" spans="1:9" ht="30">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="H782" s="9"/>
       <c r="I782" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="783" spans="1:9" ht="30">
@@ -28706,7 +28706,7 @@
       </c>
       <c r="H783" s="9"/>
       <c r="I783" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="784" spans="1:9" ht="30">
@@ -28733,7 +28733,7 @@
       </c>
       <c r="H784" s="9"/>
       <c r="I784" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="785" spans="1:9" ht="30">
@@ -28760,7 +28760,7 @@
       </c>
       <c r="H785" s="9"/>
       <c r="I785" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="786" spans="1:9" ht="30">
@@ -28787,7 +28787,7 @@
       </c>
       <c r="H786" s="9"/>
       <c r="I786" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="787" spans="1:9" ht="30">
@@ -28814,7 +28814,7 @@
       </c>
       <c r="H787" s="9"/>
       <c r="I787" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="788" spans="1:9" ht="30">
@@ -28841,7 +28841,7 @@
       </c>
       <c r="H788" s="9"/>
       <c r="I788" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="789" spans="1:9" ht="30">
@@ -28868,7 +28868,7 @@
       </c>
       <c r="H789" s="9"/>
       <c r="I789" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="790" spans="1:9" ht="30">
@@ -28895,7 +28895,7 @@
       </c>
       <c r="H790" s="9"/>
       <c r="I790" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="791" spans="1:9" ht="30">
@@ -28922,7 +28922,7 @@
       </c>
       <c r="H791" s="9"/>
       <c r="I791" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="792" spans="1:9" ht="30">
@@ -28949,7 +28949,7 @@
       </c>
       <c r="H792" s="9"/>
       <c r="I792" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="793" spans="1:9" ht="30">
@@ -28976,7 +28976,7 @@
       </c>
       <c r="H793" s="9"/>
       <c r="I793" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="794" spans="1:9" ht="30">
@@ -29003,7 +29003,7 @@
       </c>
       <c r="H794" s="9"/>
       <c r="I794" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="795" spans="1:9" ht="30">
@@ -29030,7 +29030,7 @@
       </c>
       <c r="H795" s="9"/>
       <c r="I795" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="796" spans="1:9" ht="30">
@@ -29057,7 +29057,7 @@
       </c>
       <c r="H796" s="9"/>
       <c r="I796" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="797" spans="1:9" ht="30">
@@ -29084,7 +29084,7 @@
       </c>
       <c r="H797" s="9"/>
       <c r="I797" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="798" spans="1:9" ht="30">
@@ -29111,7 +29111,7 @@
       </c>
       <c r="H798" s="9"/>
       <c r="I798" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="799" spans="1:9" ht="30">
@@ -29138,7 +29138,7 @@
       </c>
       <c r="H799" s="9"/>
       <c r="I799" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="800" spans="1:9" ht="30">
@@ -29165,7 +29165,7 @@
       </c>
       <c r="H800" s="9"/>
       <c r="I800" s="5" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="801" spans="1:9" ht="30">
@@ -29192,7 +29192,7 @@
       </c>
       <c r="H801" s="9"/>
       <c r="I801" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="802" spans="1:9" ht="30">
@@ -29219,7 +29219,7 @@
       </c>
       <c r="H802" s="9"/>
       <c r="I802" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="803" spans="1:9" ht="30">
@@ -29246,7 +29246,7 @@
       </c>
       <c r="H803" s="9"/>
       <c r="I803" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="804" spans="1:9" ht="30">
@@ -29273,7 +29273,7 @@
       </c>
       <c r="H804" s="9"/>
       <c r="I804" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="805" spans="1:9" ht="30">
@@ -29300,7 +29300,7 @@
       </c>
       <c r="H805" s="9"/>
       <c r="I805" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="806" spans="1:9" ht="30">
@@ -29327,7 +29327,7 @@
       </c>
       <c r="H806" s="9"/>
       <c r="I806" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="807" spans="1:9" ht="30">
@@ -29354,7 +29354,7 @@
       </c>
       <c r="H807" s="9"/>
       <c r="I807" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="808" spans="1:9" ht="30">
@@ -29381,7 +29381,7 @@
       </c>
       <c r="H808" s="9"/>
       <c r="I808" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="809" spans="1:9" ht="30">
@@ -29408,7 +29408,7 @@
       </c>
       <c r="H809" s="9"/>
       <c r="I809" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="810" spans="1:9" ht="30">
@@ -29435,7 +29435,7 @@
       </c>
       <c r="H810" s="9"/>
       <c r="I810" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="811" spans="1:9" ht="30">
@@ -29462,7 +29462,7 @@
       </c>
       <c r="H811" s="9"/>
       <c r="I811" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="812" spans="1:9" ht="30">
@@ -29489,7 +29489,7 @@
       </c>
       <c r="H812" s="9"/>
       <c r="I812" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="813" spans="1:9" ht="30">
@@ -29516,7 +29516,7 @@
       </c>
       <c r="H813" s="9"/>
       <c r="I813" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="814" spans="1:9" ht="30">
@@ -29543,7 +29543,7 @@
       </c>
       <c r="H814" s="9"/>
       <c r="I814" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="815" spans="1:9" ht="30">
@@ -29570,7 +29570,7 @@
       </c>
       <c r="H815" s="9"/>
       <c r="I815" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="816" spans="1:9" ht="30">
@@ -29597,7 +29597,7 @@
       </c>
       <c r="H816" s="9"/>
       <c r="I816" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="817" spans="1:9" ht="30">
@@ -29624,7 +29624,7 @@
       </c>
       <c r="H817" s="9"/>
       <c r="I817" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="818" spans="1:9" ht="30">
@@ -29651,7 +29651,7 @@
       </c>
       <c r="H818" s="9"/>
       <c r="I818" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="819" spans="1:9" ht="30">
@@ -29678,7 +29678,7 @@
       </c>
       <c r="H819" s="9"/>
       <c r="I819" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="820" spans="1:9" ht="30">
@@ -29705,7 +29705,7 @@
       </c>
       <c r="H820" s="9"/>
       <c r="I820" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="821" spans="1:9" ht="30">
@@ -29732,7 +29732,7 @@
       </c>
       <c r="H821" s="9"/>
       <c r="I821" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="822" spans="1:9" ht="30">
@@ -29759,7 +29759,7 @@
       </c>
       <c r="H822" s="9"/>
       <c r="I822" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="823" spans="1:9" ht="30">
@@ -29786,7 +29786,7 @@
       </c>
       <c r="H823" s="9"/>
       <c r="I823" s="14" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="824" spans="1:9" ht="30">
@@ -29813,7 +29813,7 @@
       </c>
       <c r="H824" s="9"/>
       <c r="I824" s="14" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="825" spans="1:9" ht="30">
@@ -29840,7 +29840,7 @@
       </c>
       <c r="H825" s="9"/>
       <c r="I825" s="14" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="826" spans="1:9" ht="30">
@@ -29867,7 +29867,7 @@
       </c>
       <c r="H826" s="9"/>
       <c r="I826" s="14" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="827" spans="1:9" ht="30">
@@ -29894,7 +29894,7 @@
       </c>
       <c r="H827" s="9"/>
       <c r="I827" s="14" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="828" spans="1:9" ht="45">
@@ -29921,7 +29921,7 @@
       </c>
       <c r="H828" s="9"/>
       <c r="I828" s="10" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="829" spans="1:9" ht="45">
@@ -29948,7 +29948,7 @@
       </c>
       <c r="H829" s="9"/>
       <c r="I829" s="10" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="830" spans="1:9" ht="60">
@@ -29975,7 +29975,7 @@
       </c>
       <c r="H830" s="9"/>
       <c r="I830" s="10" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="831" spans="1:9" ht="60">
@@ -30002,7 +30002,7 @@
       </c>
       <c r="H831" s="9"/>
       <c r="I831" s="10" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="832" spans="1:9" ht="60">
@@ -30029,7 +30029,7 @@
       </c>
       <c r="H832" s="9"/>
       <c r="I832" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="833" spans="1:9" ht="45">
@@ -30056,7 +30056,7 @@
       </c>
       <c r="H833" s="9"/>
       <c r="I833" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="834" spans="1:9" ht="30">
@@ -30083,7 +30083,7 @@
       </c>
       <c r="H834" s="9"/>
       <c r="I834" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="835" spans="1:9" ht="30">
@@ -30110,7 +30110,7 @@
       </c>
       <c r="H835" s="9"/>
       <c r="I835" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="836" spans="1:9" ht="30">
@@ -30137,7 +30137,7 @@
       </c>
       <c r="H836" s="9"/>
       <c r="I836" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="837" spans="1:9" ht="30">
@@ -30164,7 +30164,7 @@
       </c>
       <c r="H837" s="9"/>
       <c r="I837" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="838" spans="1:9" ht="45">
@@ -30191,7 +30191,7 @@
       </c>
       <c r="H838" s="9"/>
       <c r="I838" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="839" spans="1:9" ht="45">
@@ -30218,7 +30218,7 @@
       </c>
       <c r="H839" s="9"/>
       <c r="I839" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="840" spans="1:9" ht="75">
@@ -30245,7 +30245,7 @@
       </c>
       <c r="H840" s="9"/>
       <c r="I840" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="841" spans="1:9" ht="30">
@@ -30272,7 +30272,7 @@
       </c>
       <c r="H841" s="9"/>
       <c r="I841" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="842" spans="1:9" ht="30">
@@ -30299,7 +30299,7 @@
       </c>
       <c r="H842" s="9"/>
       <c r="I842" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="843" spans="1:9" ht="30">
@@ -30326,7 +30326,7 @@
       </c>
       <c r="H843" s="9"/>
       <c r="I843" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="844" spans="1:9" ht="30">
@@ -30353,7 +30353,7 @@
       </c>
       <c r="H844" s="9"/>
       <c r="I844" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="845" spans="1:9" ht="45">
@@ -30380,7 +30380,7 @@
       </c>
       <c r="H845" s="9"/>
       <c r="I845" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="846" spans="1:9" ht="30">
@@ -30407,7 +30407,7 @@
       </c>
       <c r="H846" s="9"/>
       <c r="I846" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="847" spans="1:9" ht="30">
@@ -30434,7 +30434,7 @@
       </c>
       <c r="H847" s="9"/>
       <c r="I847" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="848" spans="1:9" ht="30">
@@ -30461,7 +30461,7 @@
       </c>
       <c r="H848" s="9"/>
       <c r="I848" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="849" spans="1:9" ht="60">
@@ -30488,7 +30488,7 @@
       </c>
       <c r="H849" s="9"/>
       <c r="I849" s="10" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="850" spans="1:9" ht="30">
@@ -30515,7 +30515,7 @@
       </c>
       <c r="H850" s="9"/>
       <c r="I850" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="851" spans="1:9" ht="30">
@@ -30542,7 +30542,7 @@
       </c>
       <c r="H851" s="9"/>
       <c r="I851" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="852" spans="1:9" ht="45">
@@ -30569,7 +30569,7 @@
       </c>
       <c r="H852" s="9"/>
       <c r="I852" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="853" spans="1:9" ht="30">
@@ -30596,7 +30596,7 @@
       </c>
       <c r="H853" s="9"/>
       <c r="I853" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="854" spans="1:9" ht="30">
@@ -30623,7 +30623,7 @@
       </c>
       <c r="H854" s="9"/>
       <c r="I854" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="855" spans="1:9" ht="45">
@@ -30650,7 +30650,7 @@
       </c>
       <c r="H855" s="9"/>
       <c r="I855" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="856" spans="1:9" ht="45">
@@ -30677,7 +30677,7 @@
       </c>
       <c r="H856" s="9"/>
       <c r="I856" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="857" spans="1:9" ht="30">
@@ -30704,7 +30704,7 @@
       </c>
       <c r="H857" s="9"/>
       <c r="I857" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="858" spans="1:9" ht="30">
@@ -30731,7 +30731,7 @@
       </c>
       <c r="H858" s="9"/>
       <c r="I858" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="859" spans="1:9" ht="60">
@@ -30758,7 +30758,7 @@
       </c>
       <c r="H859" s="9"/>
       <c r="I859" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="860" spans="1:9" ht="30">
@@ -30785,7 +30785,7 @@
       </c>
       <c r="H860" s="9"/>
       <c r="I860" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="861" spans="1:9" ht="30">
@@ -30812,7 +30812,7 @@
       </c>
       <c r="H861" s="9"/>
       <c r="I861" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="862" spans="1:9" ht="60">
@@ -30839,7 +30839,7 @@
       </c>
       <c r="H862" s="9"/>
       <c r="I862" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="863" spans="1:9" ht="30">
@@ -30866,7 +30866,7 @@
       </c>
       <c r="H863" s="9"/>
       <c r="I863" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="864" spans="1:9" ht="30">
@@ -30893,7 +30893,7 @@
       </c>
       <c r="H864" s="9"/>
       <c r="I864" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="865" spans="1:9" ht="30">
@@ -30920,7 +30920,7 @@
       </c>
       <c r="H865" s="9"/>
       <c r="I865" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="866" spans="1:9" ht="30">
@@ -30947,7 +30947,7 @@
       </c>
       <c r="H866" s="9"/>
       <c r="I866" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="867" spans="1:9" ht="30">
@@ -30974,7 +30974,7 @@
       </c>
       <c r="H867" s="9"/>
       <c r="I867" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="868" spans="1:9" ht="30">
@@ -31001,7 +31001,7 @@
       </c>
       <c r="H868" s="9"/>
       <c r="I868" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="869" spans="1:9" ht="30">
@@ -31028,7 +31028,7 @@
       </c>
       <c r="H869" s="9"/>
       <c r="I869" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="870" spans="1:9" ht="30">
@@ -31055,7 +31055,7 @@
       </c>
       <c r="H870" s="9"/>
       <c r="I870" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="871" spans="1:9" ht="30">
@@ -31082,7 +31082,7 @@
       </c>
       <c r="H871" s="9"/>
       <c r="I871" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="872" spans="1:9" ht="30">
@@ -31109,7 +31109,7 @@
       </c>
       <c r="H872" s="9"/>
       <c r="I872" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="873" spans="1:9" ht="30">
@@ -31136,7 +31136,7 @@
       </c>
       <c r="H873" s="9"/>
       <c r="I873" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="874" spans="1:9" ht="30">
@@ -31163,7 +31163,7 @@
       </c>
       <c r="H874" s="9"/>
       <c r="I874" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="875" spans="1:9" ht="30">
@@ -31190,7 +31190,7 @@
       </c>
       <c r="H875" s="9"/>
       <c r="I875" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="876" spans="1:9" ht="30">
@@ -31217,7 +31217,7 @@
       </c>
       <c r="H876" s="9"/>
       <c r="I876" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="877" spans="1:9" ht="30">
@@ -31244,7 +31244,7 @@
       </c>
       <c r="H877" s="9"/>
       <c r="I877" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="878" spans="1:9" ht="30">
@@ -31271,7 +31271,7 @@
       </c>
       <c r="H878" s="9"/>
       <c r="I878" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="879" spans="1:9" ht="30">
@@ -31298,7 +31298,7 @@
       </c>
       <c r="H879" s="9"/>
       <c r="I879" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="880" spans="1:9" ht="30">
@@ -31325,7 +31325,7 @@
       </c>
       <c r="H880" s="9"/>
       <c r="I880" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="881" spans="1:9" ht="30">
@@ -31352,7 +31352,7 @@
       </c>
       <c r="H881" s="9"/>
       <c r="I881" s="10" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="882" spans="1:9" ht="30">
@@ -31379,7 +31379,7 @@
       </c>
       <c r="H882" s="9"/>
       <c r="I882" s="10" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="883" spans="1:9" ht="30">
@@ -31433,7 +31433,7 @@
       </c>
       <c r="H884" s="9"/>
       <c r="I884" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="885" spans="1:9" ht="30">
@@ -31460,7 +31460,7 @@
       </c>
       <c r="H885" s="9"/>
       <c r="I885" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="886" spans="1:9" ht="30">
@@ -31487,7 +31487,7 @@
       </c>
       <c r="H886" s="9"/>
       <c r="I886" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="887" spans="1:9" ht="30">
@@ -31514,7 +31514,7 @@
       </c>
       <c r="H887" s="9"/>
       <c r="I887" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="888" spans="1:9" ht="30">
@@ -31541,7 +31541,7 @@
       </c>
       <c r="H888" s="9"/>
       <c r="I888" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="889" spans="1:9" ht="30">
@@ -31568,7 +31568,7 @@
       </c>
       <c r="H889" s="9"/>
       <c r="I889" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="890" spans="1:9" ht="30">
@@ -31595,7 +31595,7 @@
       </c>
       <c r="H890" s="9"/>
       <c r="I890" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="891" spans="1:9" ht="30">
@@ -31622,7 +31622,7 @@
       </c>
       <c r="H891" s="9"/>
       <c r="I891" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="892" spans="1:9" ht="30">
@@ -31649,7 +31649,7 @@
       </c>
       <c r="H892" s="9"/>
       <c r="I892" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="893" spans="1:9" ht="30">
@@ -31676,7 +31676,7 @@
       </c>
       <c r="H893" s="9"/>
       <c r="I893" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="894" spans="1:9" ht="30">
@@ -31703,7 +31703,7 @@
       </c>
       <c r="H894" s="9"/>
       <c r="I894" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="895" spans="1:9" ht="30">
@@ -31730,7 +31730,7 @@
       </c>
       <c r="H895" s="9"/>
       <c r="I895" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="896" spans="1:9" ht="30">
@@ -31757,7 +31757,7 @@
       </c>
       <c r="H896" s="9"/>
       <c r="I896" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="897" spans="1:9" ht="30">
@@ -31784,7 +31784,7 @@
       </c>
       <c r="H897" s="9"/>
       <c r="I897" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="898" spans="1:9" ht="30">
@@ -31811,7 +31811,7 @@
       </c>
       <c r="H898" s="9"/>
       <c r="I898" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="899" spans="1:9" ht="30">
@@ -31838,7 +31838,7 @@
       </c>
       <c r="H899" s="9"/>
       <c r="I899" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="900" spans="1:9" ht="30">
@@ -31865,7 +31865,7 @@
       </c>
       <c r="H900" s="9"/>
       <c r="I900" s="10" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="901" spans="1:9" ht="30">
@@ -31892,7 +31892,7 @@
       </c>
       <c r="H901" s="9"/>
       <c r="I901" s="10" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="902" spans="1:9" ht="30">
@@ -31919,7 +31919,7 @@
       </c>
       <c r="H902" s="9"/>
       <c r="I902" s="10" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="903" spans="1:9" ht="30">
@@ -31946,7 +31946,7 @@
       </c>
       <c r="H903" s="9"/>
       <c r="I903" s="10" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="904" spans="1:9" ht="30">
@@ -31973,7 +31973,7 @@
       </c>
       <c r="H904" s="9"/>
       <c r="I904" s="10" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="905" spans="1:9" ht="30">
@@ -32000,7 +32000,7 @@
       </c>
       <c r="H905" s="9"/>
       <c r="I905" s="10" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="906" spans="1:9" ht="30">
@@ -32027,7 +32027,7 @@
       </c>
       <c r="H906" s="9"/>
       <c r="I906" s="10" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="907" spans="1:9" ht="30">
@@ -32054,7 +32054,7 @@
       </c>
       <c r="H907" s="9"/>
       <c r="I907" s="10" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="908" spans="1:9" ht="30">
@@ -32081,7 +32081,7 @@
       </c>
       <c r="H908" s="9"/>
       <c r="I908" s="10" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="909" spans="1:9" ht="30">
@@ -32108,7 +32108,7 @@
       </c>
       <c r="H909" s="9"/>
       <c r="I909" s="10" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="910" spans="1:9" ht="30">
@@ -32135,7 +32135,7 @@
       </c>
       <c r="H910" s="9"/>
       <c r="I910" s="10" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="911" spans="1:9" ht="30">
@@ -32162,7 +32162,7 @@
       </c>
       <c r="H911" s="9"/>
       <c r="I911" s="10" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="912" spans="1:9" ht="30">
@@ -32189,7 +32189,7 @@
       </c>
       <c r="H912" s="9"/>
       <c r="I912" s="10" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="913" spans="1:9" ht="30">
@@ -32216,7 +32216,7 @@
       </c>
       <c r="H913" s="9"/>
       <c r="I913" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="914" spans="1:9" ht="30">
@@ -32243,7 +32243,7 @@
       </c>
       <c r="H914" s="9"/>
       <c r="I914" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="915" spans="1:9" ht="45">
@@ -32270,7 +32270,7 @@
       </c>
       <c r="H915" s="9"/>
       <c r="I915" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="916" spans="1:9" ht="45">
@@ -32297,7 +32297,7 @@
       </c>
       <c r="H916" s="9"/>
       <c r="I916" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="917" spans="1:9" ht="30">
@@ -32324,7 +32324,7 @@
       </c>
       <c r="H917" s="9"/>
       <c r="I917" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="918" spans="1:9" ht="30">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="H918" s="9"/>
       <c r="I918" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="919" spans="1:9" ht="30">
@@ -32378,7 +32378,7 @@
       </c>
       <c r="H919" s="9"/>
       <c r="I919" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="920" spans="1:9" ht="30">
@@ -32405,7 +32405,7 @@
       </c>
       <c r="H920" s="9"/>
       <c r="I920" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="921" spans="1:9" ht="30">
@@ -32432,7 +32432,7 @@
       </c>
       <c r="H921" s="9"/>
       <c r="I921" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="922" spans="1:9" ht="30">
@@ -32459,7 +32459,7 @@
       </c>
       <c r="H922" s="9"/>
       <c r="I922" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="923" spans="1:9" ht="30">
@@ -32486,7 +32486,7 @@
       </c>
       <c r="H923" s="9"/>
       <c r="I923" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="924" spans="1:9" ht="30">
@@ -32513,7 +32513,7 @@
       </c>
       <c r="H924" s="9"/>
       <c r="I924" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="925" spans="1:9" ht="30">
@@ -32540,7 +32540,7 @@
       </c>
       <c r="H925" s="9"/>
       <c r="I925" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="926" spans="1:9" ht="30">
@@ -32567,7 +32567,7 @@
       </c>
       <c r="H926" s="9"/>
       <c r="I926" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="927" spans="1:9" ht="30">
@@ -32594,7 +32594,7 @@
       </c>
       <c r="H927" s="9"/>
       <c r="I927" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="928" spans="1:9" ht="30">
@@ -32621,7 +32621,7 @@
       </c>
       <c r="H928" s="9"/>
       <c r="I928" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="929" spans="1:9" ht="30">
@@ -32648,7 +32648,7 @@
       </c>
       <c r="H929" s="9"/>
       <c r="I929" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="930" spans="1:9" ht="30">
@@ -32675,7 +32675,7 @@
       </c>
       <c r="H930" s="9"/>
       <c r="I930" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="931" spans="1:9" ht="30">
@@ -32702,7 +32702,7 @@
       </c>
       <c r="H931" s="9"/>
       <c r="I931" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="932" spans="1:9" ht="30">
@@ -32729,7 +32729,7 @@
       </c>
       <c r="H932" s="9"/>
       <c r="I932" s="10" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="933" spans="1:9" ht="30">
@@ -32756,7 +32756,7 @@
       </c>
       <c r="H933" s="9"/>
       <c r="I933" s="10" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="934" spans="1:9" ht="45">
@@ -32783,7 +32783,7 @@
       </c>
       <c r="H934" s="9"/>
       <c r="I934" s="10" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="935" spans="1:9" ht="30">
@@ -32810,7 +32810,7 @@
       </c>
       <c r="H935" s="9"/>
       <c r="I935" s="10" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="936" spans="1:9" ht="30">
@@ -32837,7 +32837,7 @@
       </c>
       <c r="H936" s="9"/>
       <c r="I936" s="10" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="937" spans="1:9" ht="30">
@@ -32864,7 +32864,7 @@
       </c>
       <c r="H937" s="9"/>
       <c r="I937" s="10" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="938" spans="1:9" ht="30">
@@ -32891,12 +32891,12 @@
       </c>
       <c r="H938" s="9"/>
       <c r="I938" s="10" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="939" spans="1:9" ht="75">
       <c r="A939" s="18" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="B939" s="10" t="s">
         <v>1744</v>
@@ -32920,12 +32920,12 @@
         <v>700</v>
       </c>
       <c r="I939" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="940" spans="1:9" ht="45">
       <c r="A940" s="19" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="B940" s="10" t="s">
         <v>1745</v>
@@ -32949,12 +32949,12 @@
         <v>702</v>
       </c>
       <c r="I940" s="12" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="941" spans="1:9" ht="75">
       <c r="A941" s="19" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="B941" s="10" t="s">
         <v>1746</v>
@@ -32978,12 +32978,12 @@
         <v>700</v>
       </c>
       <c r="I941" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="942" spans="1:9" ht="30">
       <c r="A942" s="19" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="B942" s="10" t="s">
         <v>1745</v>
@@ -33004,15 +33004,15 @@
         <v>714</v>
       </c>
       <c r="H942" s="9" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="I942" s="5" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="943" spans="1:9" ht="75">
       <c r="A943" s="19" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="B943" s="10" t="s">
         <v>1747</v>
@@ -33036,12 +33036,12 @@
         <v>700</v>
       </c>
       <c r="I943" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="944" spans="1:9" ht="75">
       <c r="A944" s="19" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
       <c r="B944" s="10" t="s">
         <v>1748</v>
@@ -33065,12 +33065,12 @@
         <v>700</v>
       </c>
       <c r="I944" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="945" spans="1:9" ht="75">
       <c r="A945" s="19" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="B945" s="10" t="s">
         <v>1749</v>
@@ -33094,12 +33094,12 @@
         <v>700</v>
       </c>
       <c r="I945" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="946" spans="1:9" ht="30">
       <c r="A946" s="19" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="B946" s="10" t="s">
         <v>1750</v>
@@ -33121,12 +33121,12 @@
       </c>
       <c r="H946" s="9"/>
       <c r="I946" s="12" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="947" spans="1:9" ht="30">
       <c r="A947" s="19" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="B947" s="10" t="s">
         <v>1751</v>
@@ -33148,12 +33148,12 @@
       </c>
       <c r="H947" s="9"/>
       <c r="I947" s="12" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="948" spans="1:9" ht="75">
       <c r="A948" s="19" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="B948" s="10" t="s">
         <v>1752</v>
@@ -33177,12 +33177,12 @@
         <v>700</v>
       </c>
       <c r="I948" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="949" spans="1:9" ht="75">
       <c r="A949" s="19" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="B949" s="10" t="s">
         <v>1753</v>
@@ -33206,12 +33206,12 @@
         <v>700</v>
       </c>
       <c r="I949" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="950" spans="1:9" ht="75">
       <c r="A950" s="19" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="B950" s="10" t="s">
         <v>1754</v>
@@ -33235,12 +33235,12 @@
         <v>700</v>
       </c>
       <c r="I950" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="951" spans="1:9" ht="75">
       <c r="A951" s="19" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="B951" s="10" t="s">
         <v>1755</v>
@@ -33264,12 +33264,12 @@
         <v>700</v>
       </c>
       <c r="I951" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="952" spans="1:9" ht="75">
       <c r="A952" s="19" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="B952" s="10" t="s">
         <v>1756</v>
@@ -33293,12 +33293,12 @@
         <v>700</v>
       </c>
       <c r="I952" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="953" spans="1:9" ht="75">
       <c r="A953" s="19" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="B953" s="10" t="s">
         <v>1757</v>
@@ -33322,12 +33322,12 @@
         <v>700</v>
       </c>
       <c r="I953" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="954" spans="1:9" ht="75">
       <c r="A954" s="19" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="B954" s="10" t="s">
         <v>1758</v>
@@ -33351,12 +33351,12 @@
         <v>700</v>
       </c>
       <c r="I954" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="955" spans="1:9" ht="30">
       <c r="A955" s="19" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="B955" s="10" t="s">
         <v>1759</v>
@@ -33378,12 +33378,12 @@
       </c>
       <c r="H955" s="9"/>
       <c r="I955" s="12" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="956" spans="1:9" ht="30">
       <c r="A956" s="19" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="B956" s="10" t="s">
         <v>1760</v>
@@ -33405,12 +33405,12 @@
       </c>
       <c r="H956" s="9"/>
       <c r="I956" s="12" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="957" spans="1:9" ht="30">
       <c r="A957" s="19" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="B957" s="10" t="s">
         <v>1761</v>
@@ -33432,12 +33432,12 @@
       </c>
       <c r="H957" s="9"/>
       <c r="I957" s="12" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="958" spans="1:9" ht="45">
       <c r="A958" s="19" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="B958" s="10" t="s">
         <v>1762</v>
@@ -33461,12 +33461,12 @@
         <v>702</v>
       </c>
       <c r="I958" s="12" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="959" spans="1:9" ht="75">
       <c r="A959" s="19" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="B959" s="10" t="s">
         <v>1763</v>
@@ -33490,12 +33490,12 @@
         <v>700</v>
       </c>
       <c r="I959" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="960" spans="1:9" ht="75">
       <c r="A960" s="19" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="B960" s="10" t="s">
         <v>1764</v>
@@ -33519,12 +33519,12 @@
         <v>700</v>
       </c>
       <c r="I960" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="961" spans="1:9" ht="75">
       <c r="A961" s="19" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="B961" s="10" t="s">
         <v>1765</v>
@@ -33548,18 +33548,18 @@
         <v>700</v>
       </c>
       <c r="I961" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="962" spans="1:9" ht="45">
       <c r="A962" s="19" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B962" s="10" t="s">
         <v>1766</v>
       </c>
       <c r="C962" s="7" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="D962" s="6" t="s">
         <v>669</v>
@@ -33574,15 +33574,15 @@
         <v>714</v>
       </c>
       <c r="H962" s="9" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="I962" s="9" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="963" spans="1:9" ht="45">
       <c r="A963" s="19" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="B963" s="10" t="s">
         <v>1767</v>
@@ -33603,15 +33603,15 @@
         <v>714</v>
       </c>
       <c r="H963" s="9" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="I963" s="9" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="964" spans="1:9" ht="45">
       <c r="A964" s="19" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="B964" s="10" t="s">
         <v>1768</v>
@@ -33640,13 +33640,13 @@
     </row>
     <row r="965" spans="1:9" ht="45">
       <c r="A965" s="19" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="B965" s="10" t="s">
         <v>1769</v>
       </c>
       <c r="C965" s="7" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="D965" s="6" t="s">
         <v>669</v>
@@ -33662,18 +33662,18 @@
       </c>
       <c r="H965" s="9"/>
       <c r="I965" s="9" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="966" spans="1:9" ht="45">
       <c r="A966" s="19" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="B966" s="10" t="s">
         <v>1770</v>
       </c>
       <c r="C966" s="7" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="D966" s="6" t="s">
         <v>669</v>
@@ -33691,18 +33691,18 @@
         <v>702</v>
       </c>
       <c r="I966" s="12" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="967" spans="1:9" ht="45">
       <c r="A967" s="19" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="B967" s="10" t="s">
         <v>1771</v>
       </c>
       <c r="C967" s="7" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="D967" s="6" t="s">
         <v>669</v>
@@ -33720,12 +33720,12 @@
         <v>702</v>
       </c>
       <c r="I967" s="12" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="968" spans="1:9" ht="45">
       <c r="A968" s="19" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="B968" s="10" t="s">
         <v>1772</v>
@@ -33749,12 +33749,12 @@
         <v>702</v>
       </c>
       <c r="I968" s="12" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="969" spans="1:9" ht="45">
       <c r="A969" s="19" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="B969" s="10" t="s">
         <v>1772</v>
@@ -33778,18 +33778,18 @@
         <v>702</v>
       </c>
       <c r="I969" s="12" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="970" spans="1:9" ht="45">
       <c r="A970" s="19" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="B970" s="10" t="s">
         <v>1773</v>
       </c>
       <c r="C970" s="7" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="D970" s="6" t="s">
         <v>669</v>
@@ -33804,21 +33804,21 @@
         <v>714</v>
       </c>
       <c r="H970" s="9" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="I970" s="9" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="971" spans="1:9" ht="45">
       <c r="A971" s="19" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="B971" s="10" t="s">
         <v>1774</v>
       </c>
       <c r="C971" s="7" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="D971" s="6" t="s">
         <v>669</v>
@@ -33836,12 +33836,12 @@
         <v>702</v>
       </c>
       <c r="I971" s="12" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="972" spans="1:9" ht="45">
       <c r="A972" s="19" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="B972" s="10" t="s">
         <v>1767</v>
@@ -33862,21 +33862,21 @@
         <v>714</v>
       </c>
       <c r="H972" s="9" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="I972" s="9" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="973" spans="1:9" ht="45">
       <c r="A973" s="19" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="B973" s="10" t="s">
         <v>1775</v>
       </c>
       <c r="C973" s="7" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="D973" s="6" t="s">
         <v>669</v>
@@ -33894,12 +33894,12 @@
         <v>702</v>
       </c>
       <c r="I973" s="9" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="974" spans="1:9" ht="75">
       <c r="A974" s="19" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="B974" s="10" t="s">
         <v>1776</v>
@@ -33923,12 +33923,12 @@
         <v>700</v>
       </c>
       <c r="I974" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="975" spans="1:9" ht="45">
       <c r="A975" s="19" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="B975" s="10" t="s">
         <v>1777</v>
@@ -33957,7 +33957,7 @@
     </row>
     <row r="976" spans="1:9" ht="75">
       <c r="A976" s="19" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="B976" s="10" t="s">
         <v>1778</v>
@@ -33981,12 +33981,12 @@
         <v>700</v>
       </c>
       <c r="I976" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="977" spans="1:9" ht="75">
       <c r="A977" s="19" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="B977" s="10" t="s">
         <v>1778</v>
@@ -34010,12 +34010,12 @@
         <v>700</v>
       </c>
       <c r="I977" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="978" spans="1:9" ht="75">
       <c r="A978" s="19" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="B978" s="10" t="s">
         <v>1779</v>
@@ -34039,12 +34039,12 @@
         <v>700</v>
       </c>
       <c r="I978" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="979" spans="1:9" ht="75">
       <c r="A979" s="19" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B979" s="10" t="s">
         <v>1780</v>
@@ -34068,12 +34068,12 @@
         <v>700</v>
       </c>
       <c r="I979" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="980" spans="1:9" ht="75">
       <c r="A980" s="19" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="B980" s="10" t="s">
         <v>1781</v>
@@ -34097,12 +34097,12 @@
         <v>700</v>
       </c>
       <c r="I980" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="981" spans="1:9" ht="75">
       <c r="A981" s="19" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="B981" s="10" t="s">
         <v>1782</v>
@@ -34126,12 +34126,12 @@
         <v>700</v>
       </c>
       <c r="I981" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="982" spans="1:9" ht="75">
       <c r="A982" s="19" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="B982" s="10" t="s">
         <v>1783</v>
@@ -34155,12 +34155,12 @@
         <v>700</v>
       </c>
       <c r="I982" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="983" spans="1:9" ht="75">
       <c r="A983" s="19" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B983" s="10" t="s">
         <v>1784</v>
@@ -34184,12 +34184,12 @@
         <v>700</v>
       </c>
       <c r="I983" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="984" spans="1:9" ht="45">
       <c r="A984" s="19" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="B984" s="10" t="s">
         <v>1785</v>
@@ -34213,12 +34213,12 @@
         <v>702</v>
       </c>
       <c r="I984" s="12" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="985" spans="1:9" ht="75">
       <c r="A985" s="19" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B985" s="10" t="s">
         <v>1786</v>
@@ -34242,12 +34242,12 @@
         <v>700</v>
       </c>
       <c r="I985" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="986" spans="1:9" ht="75">
       <c r="A986" s="19" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="B986" s="10" t="s">
         <v>1787</v>
@@ -34271,12 +34271,12 @@
         <v>700</v>
       </c>
       <c r="I986" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="987" spans="1:9" ht="75">
       <c r="A987" s="19" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B987" s="10" t="s">
         <v>1788</v>
@@ -34300,12 +34300,12 @@
         <v>700</v>
       </c>
       <c r="I987" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="988" spans="1:9" ht="45">
       <c r="A988" s="19" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="B988" s="10" t="s">
         <v>1789</v>
@@ -34326,15 +34326,15 @@
         <v>714</v>
       </c>
       <c r="H988" s="9" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="I988" s="5" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="989" spans="1:9" ht="75">
       <c r="A989" s="19" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B989" s="10" t="s">
         <v>1790</v>
@@ -34358,12 +34358,12 @@
         <v>700</v>
       </c>
       <c r="I989" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="990" spans="1:9" ht="75">
       <c r="A990" s="19" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="B990" s="10" t="s">
         <v>1786</v>
@@ -34387,12 +34387,12 @@
         <v>700</v>
       </c>
       <c r="I990" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="991" spans="1:9" ht="30">
       <c r="A991" s="19" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B991" s="10" t="s">
         <v>1746</v>
@@ -34413,21 +34413,21 @@
         <v>714</v>
       </c>
       <c r="H991" s="9" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="I991" s="5" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="992" spans="1:9" ht="45">
       <c r="A992" s="19" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="B992" s="10" t="s">
         <v>1791</v>
       </c>
       <c r="C992" s="7" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="D992" s="6" t="s">
         <v>669</v>
@@ -34445,12 +34445,12 @@
         <v>702</v>
       </c>
       <c r="I992" s="12" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="993" spans="1:9" ht="30">
       <c r="A993" s="19" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B993" s="10" t="s">
         <v>1792</v>
@@ -34471,21 +34471,21 @@
         <v>714</v>
       </c>
       <c r="H993" s="9" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="I993" s="5" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="994" spans="1:9" ht="30">
       <c r="A994" s="19" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="B994" s="10" t="s">
         <v>1793</v>
       </c>
       <c r="C994" s="7" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="D994" s="6" t="s">
         <v>669</v>
@@ -34503,18 +34503,18 @@
         <v>700</v>
       </c>
       <c r="I994" s="9" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="995" spans="1:9" ht="30">
       <c r="A995" s="19" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B995" s="10" t="s">
         <v>1794</v>
       </c>
       <c r="C995" s="7" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D995" s="6" t="s">
         <v>669</v>
@@ -34532,18 +34532,18 @@
         <v>702</v>
       </c>
       <c r="I995" s="9" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="996" spans="1:9" ht="45">
       <c r="A996" s="19" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="B996" s="10" t="s">
-        <v>1795</v>
+        <v>2111</v>
       </c>
       <c r="C996" s="7" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="D996" s="6" t="s">
         <v>669</v>
@@ -34566,13 +34566,13 @@
     </row>
     <row r="997" spans="1:9" ht="45">
       <c r="A997" s="19" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B997" s="10" t="s">
-        <v>1796</v>
+        <v>2112</v>
       </c>
       <c r="C997" s="7" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="D997" s="6" t="s">
         <v>669</v>
@@ -34595,10 +34595,10 @@
     </row>
     <row r="998" spans="1:9" ht="120">
       <c r="A998" s="19" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="B998" s="10" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="C998" s="7" t="s">
         <v>683</v>
@@ -34619,15 +34619,15 @@
         <v>700</v>
       </c>
       <c r="I998" s="12" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="999" spans="1:9" ht="75">
       <c r="A999" s="19" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B999" s="10" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="C999" s="7" t="s">
         <v>683</v>
@@ -34648,12 +34648,12 @@
         <v>700</v>
       </c>
       <c r="I999" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1000" spans="1:9" ht="75">
       <c r="A1000" s="19" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B1000" s="10" t="s">
         <v>1788</v>
@@ -34677,15 +34677,15 @@
         <v>700</v>
       </c>
       <c r="I1000" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1001" spans="1:9" ht="75">
       <c r="A1001" s="19" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B1001" s="10" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C1001" s="7" t="s">
         <v>683</v>
@@ -34706,15 +34706,15 @@
         <v>700</v>
       </c>
       <c r="I1001" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1002" spans="1:9" ht="75">
       <c r="A1002" s="19" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B1002" s="10" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C1002" s="7" t="s">
         <v>683</v>
@@ -34735,15 +34735,15 @@
         <v>700</v>
       </c>
       <c r="I1002" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1003" spans="1:9" ht="75">
       <c r="A1003" s="19" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B1003" s="10" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C1003" s="7" t="s">
         <v>683</v>
@@ -34764,15 +34764,15 @@
         <v>700</v>
       </c>
       <c r="I1003" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1004" spans="1:9" ht="75">
       <c r="A1004" s="19" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B1004" s="10" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C1004" s="7" t="s">
         <v>683</v>
@@ -34793,18 +34793,18 @@
         <v>700</v>
       </c>
       <c r="I1004" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1005" spans="1:9" ht="30">
       <c r="A1005" s="19" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B1005" s="10" t="s">
         <v>1793</v>
       </c>
       <c r="C1005" s="7" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="D1005" s="6" t="s">
         <v>669</v>
@@ -34822,18 +34822,18 @@
         <v>700</v>
       </c>
       <c r="I1005" s="9" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1006" spans="1:9" ht="30">
       <c r="A1006" s="19" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B1006" s="10" t="s">
         <v>1794</v>
       </c>
       <c r="C1006" s="7" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D1006" s="6" t="s">
         <v>669</v>
@@ -34851,18 +34851,18 @@
         <v>702</v>
       </c>
       <c r="I1006" s="9" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1007" spans="1:9" ht="45">
       <c r="A1007" s="19" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B1007" s="10" t="s">
-        <v>1800</v>
+        <v>2109</v>
       </c>
       <c r="C1007" s="7" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="D1007" s="6" t="s">
         <v>669</v>
@@ -34885,13 +34885,13 @@
     </row>
     <row r="1008" spans="1:9" ht="45">
       <c r="A1008" s="19" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B1008" s="10" t="s">
-        <v>1801</v>
+        <v>2110</v>
       </c>
       <c r="C1008" s="7" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="D1008" s="6" t="s">
         <v>669</v>
@@ -34914,13 +34914,13 @@
     </row>
     <row r="1009" spans="1:9" ht="45">
       <c r="A1009" s="19" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B1009" s="10" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="C1009" s="7" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="D1009" s="6" t="s">
         <v>669</v>
@@ -34936,18 +34936,18 @@
       </c>
       <c r="H1009" s="9"/>
       <c r="I1009" s="12" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1010" spans="1:9" ht="30">
       <c r="A1010" s="19" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B1010" s="10" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="C1010" s="7" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="D1010" s="6" t="s">
         <v>669</v>
@@ -34963,18 +34963,18 @@
       </c>
       <c r="H1010" s="9"/>
       <c r="I1010" s="12" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1011" spans="1:9" ht="45">
       <c r="A1011" s="19" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B1011" s="10" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="C1011" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1011" s="6" t="s">
         <v>669</v>
@@ -34990,18 +34990,18 @@
       </c>
       <c r="H1011" s="9"/>
       <c r="I1011" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1012" spans="1:9" ht="45">
       <c r="A1012" s="19" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B1012" s="10" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="C1012" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1012" s="6" t="s">
         <v>669</v>
@@ -35017,15 +35017,15 @@
       </c>
       <c r="H1012" s="9"/>
       <c r="I1012" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1013" spans="1:9" ht="75">
       <c r="A1013" s="19" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B1013" s="10" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="C1013" s="7" t="s">
         <v>683</v>
@@ -35046,18 +35046,18 @@
         <v>700</v>
       </c>
       <c r="I1013" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1014" spans="1:9" ht="45">
       <c r="A1014" s="19" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B1014" s="10" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="C1014" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1014" s="6" t="s">
         <v>669</v>
@@ -35073,18 +35073,18 @@
       </c>
       <c r="H1014" s="9"/>
       <c r="I1014" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1015" spans="1:9" ht="45">
       <c r="A1015" s="19" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B1015" s="10" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="C1015" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1015" s="6" t="s">
         <v>669</v>
@@ -35100,18 +35100,18 @@
       </c>
       <c r="H1015" s="9"/>
       <c r="I1015" s="10" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1016" spans="1:9" ht="30">
       <c r="A1016" s="19" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B1016" s="10" t="s">
         <v>1793</v>
       </c>
       <c r="C1016" s="7" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="D1016" s="6" t="s">
         <v>669</v>
@@ -35129,18 +35129,18 @@
         <v>700</v>
       </c>
       <c r="I1016" s="9" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1017" spans="1:9" ht="30">
       <c r="A1017" s="19" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B1017" s="10" t="s">
         <v>1794</v>
       </c>
       <c r="C1017" s="7" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D1017" s="6" t="s">
         <v>669</v>
@@ -35158,12 +35158,12 @@
         <v>702</v>
       </c>
       <c r="I1017" s="9" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1018" spans="1:9" ht="45">
       <c r="A1018" s="19" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B1018" s="10" t="s">
         <v>1777</v>
@@ -35192,13 +35192,13 @@
     </row>
     <row r="1019" spans="1:9" ht="45">
       <c r="A1019" s="19" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B1019" s="10" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="C1019" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1019" s="6" t="s">
         <v>669</v>
@@ -35214,18 +35214,18 @@
       </c>
       <c r="H1019" s="9"/>
       <c r="I1019" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1020" spans="1:9" ht="45">
       <c r="A1020" s="19" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B1020" s="10" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="C1020" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1020" s="6" t="s">
         <v>669</v>
@@ -35241,18 +35241,18 @@
       </c>
       <c r="H1020" s="9"/>
       <c r="I1020" s="10" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1021" spans="1:9" ht="45">
       <c r="A1021" s="19" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="B1021" s="10" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="C1021" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1021" s="6" t="s">
         <v>669</v>
@@ -35268,18 +35268,18 @@
       </c>
       <c r="H1021" s="9"/>
       <c r="I1021" s="10" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1022" spans="1:9" ht="45">
       <c r="A1022" s="19" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="B1022" s="10" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="C1022" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1022" s="6" t="s">
         <v>669</v>
@@ -35295,18 +35295,18 @@
       </c>
       <c r="H1022" s="9"/>
       <c r="I1022" s="10" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1023" spans="1:9" ht="45">
       <c r="A1023" s="19" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="B1023" s="10" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="C1023" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1023" s="6" t="s">
         <v>669</v>
@@ -35322,18 +35322,18 @@
       </c>
       <c r="H1023" s="9"/>
       <c r="I1023" s="10" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1024" spans="1:9" ht="45">
       <c r="A1024" s="19" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="B1024" s="10" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="C1024" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1024" s="6" t="s">
         <v>669</v>
@@ -35349,18 +35349,18 @@
       </c>
       <c r="H1024" s="9"/>
       <c r="I1024" s="10" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1025" spans="1:9" ht="45">
       <c r="A1025" s="19" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="B1025" s="10" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="C1025" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1025" s="6" t="s">
         <v>669</v>
@@ -35376,18 +35376,18 @@
       </c>
       <c r="H1025" s="9"/>
       <c r="I1025" s="10" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1026" spans="1:9" ht="60">
       <c r="A1026" s="19" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="B1026" s="10" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="C1026" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1026" s="6" t="s">
         <v>669</v>
@@ -35403,18 +35403,18 @@
       </c>
       <c r="H1026" s="9"/>
       <c r="I1026" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1027" spans="1:9" ht="45">
       <c r="A1027" s="19" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="B1027" s="10" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="C1027" s="7" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="D1027" s="6" t="s">
         <v>669</v>
@@ -35430,18 +35430,18 @@
       </c>
       <c r="H1027" s="9"/>
       <c r="I1027" s="9" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1028" spans="1:9" ht="60">
       <c r="A1028" s="19" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="B1028" s="10" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="C1028" s="7" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="D1028" s="6" t="s">
         <v>669</v>
@@ -35457,18 +35457,18 @@
       </c>
       <c r="H1028" s="9"/>
       <c r="I1028" s="9" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1029" spans="1:9" ht="45">
       <c r="A1029" s="19" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="B1029" s="10" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="C1029" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1029" s="6" t="s">
         <v>669</v>
@@ -35484,18 +35484,18 @@
       </c>
       <c r="H1029" s="9"/>
       <c r="I1029" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1030" spans="1:9" ht="45">
       <c r="A1030" s="19" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="B1030" s="10" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="C1030" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1030" s="6" t="s">
         <v>669</v>
@@ -35511,18 +35511,18 @@
       </c>
       <c r="H1030" s="9"/>
       <c r="I1030" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1031" spans="1:9" ht="45">
       <c r="A1031" s="19" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="B1031" s="10" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="C1031" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1031" s="6" t="s">
         <v>669</v>
@@ -35538,18 +35538,18 @@
       </c>
       <c r="H1031" s="9"/>
       <c r="I1031" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1032" spans="1:9" ht="45">
       <c r="A1032" s="19" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="B1032" s="10" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="C1032" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1032" s="6" t="s">
         <v>669</v>
@@ -35565,18 +35565,18 @@
       </c>
       <c r="H1032" s="9"/>
       <c r="I1032" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1033" spans="1:9" ht="45">
       <c r="A1033" s="19" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="B1033" s="10" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="C1033" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1033" s="6" t="s">
         <v>669</v>
@@ -35592,18 +35592,18 @@
       </c>
       <c r="H1033" s="9"/>
       <c r="I1033" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1034" spans="1:9" ht="45">
       <c r="A1034" s="19" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="B1034" s="10" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="C1034" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1034" s="6" t="s">
         <v>669</v>
@@ -35619,18 +35619,18 @@
       </c>
       <c r="H1034" s="9"/>
       <c r="I1034" s="10" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1035" spans="1:9" ht="45">
       <c r="A1035" s="19" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="B1035" s="10" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="C1035" s="7" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="D1035" s="6" t="s">
         <v>669</v>
@@ -35646,18 +35646,18 @@
       </c>
       <c r="H1035" s="9"/>
       <c r="I1035" s="10" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1036" spans="1:9" ht="45">
       <c r="A1036" s="19" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="B1036" s="10" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="C1036" s="7" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="D1036" s="6" t="s">
         <v>669</v>
@@ -35673,18 +35673,18 @@
       </c>
       <c r="H1036" s="9"/>
       <c r="I1036" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1037" spans="1:9" ht="45">
       <c r="A1037" s="19" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="B1037" s="10" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="C1037" s="7" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="D1037" s="6" t="s">
         <v>669</v>
@@ -35700,15 +35700,15 @@
       </c>
       <c r="H1037" s="9"/>
       <c r="I1037" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1038" spans="1:9" ht="75">
       <c r="A1038" s="19" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="B1038" s="10" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="C1038" s="7" t="s">
         <v>683</v>
@@ -35729,15 +35729,15 @@
         <v>700</v>
       </c>
       <c r="I1038" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1039" spans="1:9" ht="75">
       <c r="A1039" s="19" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="B1039" s="10" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="C1039" s="7" t="s">
         <v>683</v>
@@ -35758,15 +35758,15 @@
         <v>700</v>
       </c>
       <c r="I1039" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1040" spans="1:9" ht="75">
       <c r="A1040" s="19" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="B1040" s="10" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="C1040" s="7" t="s">
         <v>683</v>
@@ -35787,18 +35787,18 @@
         <v>700</v>
       </c>
       <c r="I1040" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1041" spans="1:9" ht="45">
       <c r="A1041" s="19" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="B1041" s="10" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="C1041" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1041" s="6" t="s">
         <v>669</v>
@@ -35814,18 +35814,18 @@
       </c>
       <c r="H1041" s="9"/>
       <c r="I1041" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1042" spans="1:9" ht="45">
       <c r="A1042" s="19" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="B1042" s="10" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="C1042" s="7" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="D1042" s="6" t="s">
         <v>669</v>
@@ -35841,15 +35841,15 @@
       </c>
       <c r="H1042" s="9"/>
       <c r="I1042" s="9" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1043" spans="1:9" ht="75">
       <c r="A1043" s="19" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="B1043" s="10" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="C1043" s="7" t="s">
         <v>683</v>
@@ -35870,15 +35870,15 @@
         <v>700</v>
       </c>
       <c r="I1043" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1044" spans="1:9" ht="75">
       <c r="A1044" s="19" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="B1044" s="10" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="C1044" s="7" t="s">
         <v>683</v>
@@ -35899,15 +35899,15 @@
         <v>700</v>
       </c>
       <c r="I1044" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1045" spans="1:9" ht="75">
       <c r="A1045" s="19" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="B1045" s="10" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="C1045" s="7" t="s">
         <v>683</v>
@@ -35928,15 +35928,15 @@
         <v>700</v>
       </c>
       <c r="I1045" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1046" spans="1:9" ht="75">
       <c r="A1046" s="19" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="B1046" s="10" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="C1046" s="7" t="s">
         <v>683</v>
@@ -35957,18 +35957,18 @@
         <v>700</v>
       </c>
       <c r="I1046" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1047" spans="1:9" ht="45">
       <c r="A1047" s="19" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="B1047" s="10" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="C1047" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1047" s="6" t="s">
         <v>669</v>
@@ -35984,18 +35984,18 @@
       </c>
       <c r="H1047" s="9"/>
       <c r="I1047" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1048" spans="1:9" ht="45">
       <c r="A1048" s="19" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="B1048" s="10" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="C1048" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1048" s="6" t="s">
         <v>669</v>
@@ -36011,15 +36011,15 @@
       </c>
       <c r="H1048" s="9"/>
       <c r="I1048" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1049" spans="1:9" ht="75">
       <c r="A1049" s="19" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="B1049" s="10" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="C1049" s="7" t="s">
         <v>683</v>
@@ -36040,18 +36040,18 @@
         <v>700</v>
       </c>
       <c r="I1049" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1050" spans="1:9" ht="45">
       <c r="A1050" s="19" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="B1050" s="10" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="C1050" s="7" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="D1050" s="6" t="s">
         <v>669</v>
@@ -36067,15 +36067,15 @@
       </c>
       <c r="H1050" s="9"/>
       <c r="I1050" s="9" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1051" spans="1:9" ht="45">
       <c r="A1051" s="19" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="B1051" s="10" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="C1051" s="7" t="s">
         <v>683</v>
@@ -36096,15 +36096,15 @@
         <v>702</v>
       </c>
       <c r="I1051" s="12" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1052" spans="1:9" ht="45">
       <c r="A1052" s="19" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
       <c r="B1052" s="10" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="C1052" s="7" t="s">
         <v>683</v>
@@ -36125,18 +36125,18 @@
         <v>702</v>
       </c>
       <c r="I1052" s="12" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1053" spans="1:9" ht="45">
       <c r="A1053" s="19" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="B1053" s="10" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="C1053" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1053" s="6" t="s">
         <v>669</v>
@@ -36152,18 +36152,18 @@
       </c>
       <c r="H1053" s="9"/>
       <c r="I1053" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1054" spans="1:9" ht="45">
       <c r="A1054" s="19" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="B1054" s="10" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="C1054" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1054" s="6" t="s">
         <v>669</v>
@@ -36179,18 +36179,18 @@
       </c>
       <c r="H1054" s="9"/>
       <c r="I1054" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1055" spans="1:9" ht="45">
       <c r="A1055" s="19" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="B1055" s="10" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="C1055" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1055" s="6" t="s">
         <v>669</v>
@@ -36206,18 +36206,18 @@
       </c>
       <c r="H1055" s="9"/>
       <c r="I1055" s="10" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1056" spans="1:9" ht="45">
       <c r="A1056" s="19" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="B1056" s="10" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="C1056" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1056" s="6" t="s">
         <v>669</v>
@@ -36233,18 +36233,18 @@
       </c>
       <c r="H1056" s="9"/>
       <c r="I1056" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1057" spans="1:9" ht="45">
       <c r="A1057" s="19" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="B1057" s="10" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="C1057" s="7" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="D1057" s="6" t="s">
         <v>669</v>
@@ -36260,18 +36260,18 @@
       </c>
       <c r="H1057" s="9"/>
       <c r="I1057" s="9" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1058" spans="1:9" ht="45">
       <c r="A1058" s="19" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="B1058" s="10" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="C1058" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1058" s="6" t="s">
         <v>669</v>
@@ -36287,18 +36287,18 @@
       </c>
       <c r="H1058" s="9"/>
       <c r="I1058" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1059" spans="1:9" ht="45">
       <c r="A1059" s="19" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="B1059" s="10" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="C1059" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1059" s="6" t="s">
         <v>669</v>
@@ -36314,18 +36314,18 @@
       </c>
       <c r="H1059" s="9"/>
       <c r="I1059" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1060" spans="1:9" ht="45">
       <c r="A1060" s="19" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="B1060" s="10" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="C1060" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1060" s="6" t="s">
         <v>669</v>
@@ -36341,18 +36341,18 @@
       </c>
       <c r="H1060" s="9"/>
       <c r="I1060" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1061" spans="1:9" ht="45">
       <c r="A1061" s="19" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="B1061" s="10" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="C1061" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1061" s="6" t="s">
         <v>669</v>
@@ -36368,18 +36368,18 @@
       </c>
       <c r="H1061" s="9"/>
       <c r="I1061" s="10" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1062" spans="1:9" ht="45">
       <c r="A1062" s="19" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="B1062" s="10" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="C1062" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1062" s="6" t="s">
         <v>669</v>
@@ -36395,12 +36395,12 @@
       </c>
       <c r="H1062" s="9"/>
       <c r="I1062" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1063" spans="1:9" ht="75">
       <c r="A1063" s="19" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="B1063" s="10" t="s">
         <v>1749</v>
@@ -36424,12 +36424,12 @@
         <v>700</v>
       </c>
       <c r="I1063" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1064" spans="1:9" ht="75">
       <c r="A1064" s="19" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="B1064" s="10" t="s">
         <v>1782</v>
@@ -36453,15 +36453,15 @@
         <v>700</v>
       </c>
       <c r="I1064" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1065" spans="1:9" ht="30">
       <c r="A1065" s="19" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="B1065" s="10" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="C1065" s="7" t="s">
         <v>1743</v>
@@ -36480,18 +36480,18 @@
       </c>
       <c r="H1065" s="9"/>
       <c r="I1065" s="12" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1066" spans="1:9" ht="45">
       <c r="A1066" s="19" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B1066" s="10" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="C1066" s="7" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="D1066" s="6" t="s">
         <v>669</v>
@@ -36507,18 +36507,18 @@
       </c>
       <c r="H1066" s="9"/>
       <c r="I1066" s="9" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1067" spans="1:9" ht="30">
       <c r="A1067" s="19" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="B1067" s="10" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="C1067" s="7" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="D1067" s="6" t="s">
         <v>669</v>
@@ -36534,18 +36534,18 @@
       </c>
       <c r="H1067" s="9"/>
       <c r="I1067" s="9" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1068" spans="1:9" ht="45">
       <c r="A1068" s="19" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="B1068" s="10" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="C1068" s="7" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="D1068" s="6" t="s">
         <v>669</v>
@@ -36561,18 +36561,18 @@
       </c>
       <c r="H1068" s="9"/>
       <c r="I1068" s="9" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1069" spans="1:9" ht="60">
       <c r="A1069" s="19" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="B1069" s="10" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="C1069" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1069" s="6" t="s">
         <v>669</v>
@@ -36588,18 +36588,18 @@
       </c>
       <c r="H1069" s="9"/>
       <c r="I1069" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1070" spans="1:9" ht="75">
       <c r="A1070" s="19" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="B1070" s="10" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="C1070" s="7" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D1070" s="6" t="s">
         <v>669</v>
@@ -36615,18 +36615,18 @@
       </c>
       <c r="H1070" s="9"/>
       <c r="I1070" s="12" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1071" spans="1:9" ht="45">
       <c r="A1071" s="19" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="B1071" s="10" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="C1071" s="7" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="D1071" s="6" t="s">
         <v>669</v>
@@ -36644,18 +36644,18 @@
         <v>702</v>
       </c>
       <c r="I1071" s="12" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1072" spans="1:9" ht="45">
       <c r="A1072" s="19" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="B1072" s="10" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="C1072" s="7" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="D1072" s="6" t="s">
         <v>669</v>
@@ -36673,15 +36673,15 @@
         <v>702</v>
       </c>
       <c r="I1072" s="12" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1073" spans="1:9" ht="75">
       <c r="A1073" s="19" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="B1073" s="10" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="C1073" s="7" t="s">
         <v>683</v>
@@ -36702,15 +36702,15 @@
         <v>700</v>
       </c>
       <c r="I1073" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1074" spans="1:9" ht="75">
       <c r="A1074" s="19" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="B1074" s="10" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="C1074" s="7" t="s">
         <v>683</v>
@@ -36731,15 +36731,15 @@
         <v>700</v>
       </c>
       <c r="I1074" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1075" spans="1:9" ht="75">
       <c r="A1075" s="19" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="B1075" s="10" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="C1075" s="7" t="s">
         <v>683</v>
@@ -36760,15 +36760,15 @@
         <v>700</v>
       </c>
       <c r="I1075" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1076" spans="1:9" ht="75">
       <c r="A1076" s="19" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="B1076" s="10" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="C1076" s="7" t="s">
         <v>683</v>
@@ -36789,15 +36789,15 @@
         <v>700</v>
       </c>
       <c r="I1076" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1077" spans="1:9" ht="75">
       <c r="A1077" s="19" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="B1077" s="10" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="C1077" s="7" t="s">
         <v>683</v>
@@ -36818,15 +36818,15 @@
         <v>700</v>
       </c>
       <c r="I1077" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1078" spans="1:9" ht="75">
       <c r="A1078" s="19" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="B1078" s="10" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="C1078" s="7" t="s">
         <v>683</v>
@@ -36847,15 +36847,15 @@
         <v>700</v>
       </c>
       <c r="I1078" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1079" spans="1:9" ht="75">
       <c r="A1079" s="19" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="B1079" s="10" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="C1079" s="7" t="s">
         <v>683</v>
@@ -36876,15 +36876,15 @@
         <v>700</v>
       </c>
       <c r="I1079" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1080" spans="1:9" ht="75">
       <c r="A1080" s="19" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="B1080" s="10" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="C1080" s="7" t="s">
         <v>683</v>
@@ -36905,15 +36905,15 @@
         <v>700</v>
       </c>
       <c r="I1080" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1081" spans="1:9" ht="75">
       <c r="A1081" s="19" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="B1081" s="10" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="C1081" s="7" t="s">
         <v>683</v>
@@ -36934,15 +36934,15 @@
         <v>700</v>
       </c>
       <c r="I1081" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1082" spans="1:9" ht="75">
       <c r="A1082" s="19" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="B1082" s="10" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="C1082" s="7" t="s">
         <v>683</v>
@@ -36963,15 +36963,15 @@
         <v>700</v>
       </c>
       <c r="I1082" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1083" spans="1:9" ht="75">
       <c r="A1083" s="19" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="B1083" s="10" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="C1083" s="7" t="s">
         <v>683</v>
@@ -36992,15 +36992,15 @@
         <v>700</v>
       </c>
       <c r="I1083" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1084" spans="1:9" ht="75">
       <c r="A1084" s="19" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="B1084" s="10" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="C1084" s="7" t="s">
         <v>683</v>
@@ -37021,15 +37021,15 @@
         <v>700</v>
       </c>
       <c r="I1084" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1085" spans="1:9" ht="75">
       <c r="A1085" s="19" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="B1085" s="10" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="C1085" s="7" t="s">
         <v>683</v>
@@ -37050,12 +37050,12 @@
         <v>700</v>
       </c>
       <c r="I1085" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1086" spans="1:9" ht="75">
       <c r="A1086" s="19" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="B1086" s="10" t="s">
         <v>1755</v>
@@ -37079,15 +37079,15 @@
         <v>700</v>
       </c>
       <c r="I1086" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1087" spans="1:9" ht="75">
       <c r="A1087" s="19" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="B1087" s="10" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="C1087" s="7" t="s">
         <v>683</v>
@@ -37108,15 +37108,15 @@
         <v>700</v>
       </c>
       <c r="I1087" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1088" spans="1:9" ht="75">
       <c r="A1088" s="19" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="B1088" s="10" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="C1088" s="7" t="s">
         <v>683</v>
@@ -37137,12 +37137,12 @@
         <v>700</v>
       </c>
       <c r="I1088" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1089" spans="1:9" ht="75">
       <c r="A1089" s="19" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="B1089" s="10" t="s">
         <v>1782</v>
@@ -37166,15 +37166,15 @@
         <v>700</v>
       </c>
       <c r="I1089" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1090" spans="1:9" ht="75">
       <c r="A1090" s="19" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="B1090" s="10" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="C1090" s="7" t="s">
         <v>683</v>
@@ -37195,15 +37195,15 @@
         <v>700</v>
       </c>
       <c r="I1090" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1091" spans="1:9" ht="75">
       <c r="A1091" s="19" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="B1091" s="10" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="C1091" s="7" t="s">
         <v>683</v>
@@ -37224,12 +37224,12 @@
         <v>700</v>
       </c>
       <c r="I1091" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1092" spans="1:9" ht="75">
       <c r="A1092" s="19" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="B1092" s="10" t="s">
         <v>1784</v>
@@ -37253,15 +37253,15 @@
         <v>700</v>
       </c>
       <c r="I1092" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1093" spans="1:9" ht="75">
       <c r="A1093" s="19" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="B1093" s="10" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C1093" s="7" t="s">
         <v>683</v>
@@ -37282,12 +37282,12 @@
         <v>700</v>
       </c>
       <c r="I1093" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1094" spans="1:9" ht="75">
       <c r="A1094" s="19" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="B1094" s="10" t="s">
         <v>1779</v>
@@ -37311,15 +37311,15 @@
         <v>700</v>
       </c>
       <c r="I1094" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1095" spans="1:9" ht="75">
       <c r="A1095" s="19" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="B1095" s="10" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="C1095" s="7" t="s">
         <v>683</v>
@@ -37340,15 +37340,15 @@
         <v>700</v>
       </c>
       <c r="I1095" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1096" spans="1:9" ht="75">
       <c r="A1096" s="19" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="B1096" s="10" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="C1096" s="7" t="s">
         <v>683</v>
@@ -37369,15 +37369,15 @@
         <v>700</v>
       </c>
       <c r="I1096" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1097" spans="1:9" ht="75">
       <c r="A1097" s="19" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="B1097" s="10" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="C1097" s="7" t="s">
         <v>683</v>
@@ -37398,15 +37398,15 @@
         <v>700</v>
       </c>
       <c r="I1097" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1098" spans="1:9" ht="75">
       <c r="A1098" s="19" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="B1098" s="10" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="C1098" s="7" t="s">
         <v>683</v>
@@ -37427,15 +37427,15 @@
         <v>700</v>
       </c>
       <c r="I1098" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1099" spans="1:9" ht="45">
       <c r="A1099" s="19" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="B1099" s="10" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="C1099" s="7" t="s">
         <v>683</v>
@@ -37456,15 +37456,15 @@
         <v>702</v>
       </c>
       <c r="I1099" s="12" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1100" spans="1:9" ht="75">
       <c r="A1100" s="19" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="B1100" s="10" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="C1100" s="7" t="s">
         <v>683</v>
@@ -37485,15 +37485,15 @@
         <v>700</v>
       </c>
       <c r="I1100" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1101" spans="1:9" ht="75">
       <c r="A1101" s="19" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="B1101" s="10" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="C1101" s="7" t="s">
         <v>683</v>
@@ -37514,15 +37514,15 @@
         <v>700</v>
       </c>
       <c r="I1101" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1102" spans="1:9" ht="75">
       <c r="A1102" s="19" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="B1102" s="10" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="C1102" s="7" t="s">
         <v>683</v>
@@ -37543,15 +37543,15 @@
         <v>700</v>
       </c>
       <c r="I1102" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1103" spans="1:9" ht="45">
       <c r="A1103" s="19" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="B1103" s="10" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="C1103" s="7" t="s">
         <v>683</v>
@@ -37572,12 +37572,12 @@
         <v>702</v>
       </c>
       <c r="I1103" s="12" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1104" spans="1:9" ht="30">
       <c r="A1104" s="19" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="B1104" s="10" t="s">
         <v>1745</v>
@@ -37598,18 +37598,18 @@
         <v>714</v>
       </c>
       <c r="H1104" s="9" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="I1104" s="5" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1105" spans="1:9" ht="75">
       <c r="A1105" s="19" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="B1105" s="10" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="C1105" s="7" t="s">
         <v>683</v>
@@ -37630,15 +37630,15 @@
         <v>700</v>
       </c>
       <c r="I1105" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1106" spans="1:9" ht="75">
       <c r="A1106" s="19" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="B1106" s="10" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="C1106" s="7" t="s">
         <v>683</v>
@@ -37659,15 +37659,15 @@
         <v>700</v>
       </c>
       <c r="I1106" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1107" spans="1:9" ht="75">
       <c r="A1107" s="19" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="B1107" s="10" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="C1107" s="7" t="s">
         <v>683</v>
@@ -37688,7 +37688,7 @@
         <v>700</v>
       </c>
       <c r="I1107" s="12" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
   </sheetData>
